--- a/2019 Draft Results.xlsx
+++ b/2019 Draft Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcappleman\Documents\projects\dke-fantasy-football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DF36ED-D571-4EBB-BBEC-6E3176C185F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686498D4-BD01-4988-9F36-4212DB31F5E9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Picks" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Trevor" sheetId="7" r:id="rId12"/>
     <sheet name="Willis" sheetId="12" r:id="rId13"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Picks'!$A$1:$G$181</definedName>
+  </definedNames>
   <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,6 +38,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="207">
   <si>
     <t>Overall</t>
   </si>
@@ -62,15 +66,9 @@
     <t>Chaz</t>
   </si>
   <si>
-    <t>Dalvin Cook</t>
-  </si>
-  <si>
     <t>Ross</t>
   </si>
   <si>
-    <t>Christian McCaffrey</t>
-  </si>
-  <si>
     <t>Ean</t>
   </si>
   <si>
@@ -101,9 +99,6 @@
     <t>Hunter</t>
   </si>
   <si>
-    <t>Joe Mixon</t>
-  </si>
-  <si>
     <t>Stefon Diggs</t>
   </si>
   <si>
@@ -128,9 +123,6 @@
     <t>Jarvis Landry</t>
   </si>
   <si>
-    <t>Brandin Cooks</t>
-  </si>
-  <si>
     <t>Robert Woods</t>
   </si>
   <si>
@@ -170,9 +162,6 @@
     <t>Sammy Watkins</t>
   </si>
   <si>
-    <t>Calvin Ridley</t>
-  </si>
-  <si>
     <t>Tevin Coleman</t>
   </si>
   <si>
@@ -182,9 +171,6 @@
     <t>David Njoku</t>
   </si>
   <si>
-    <t>Patrick Maholmes</t>
-  </si>
-  <si>
     <t>Julian Edelman</t>
   </si>
   <si>
@@ -194,9 +180,6 @@
     <t>Sterling Shepard</t>
   </si>
   <si>
-    <t>Aaron Jones</t>
-  </si>
-  <si>
     <t>Matt Breida</t>
   </si>
   <si>
@@ -212,78 +195,30 @@
     <t>George Kittle</t>
   </si>
   <si>
-    <t>Jordy Nelson</t>
-  </si>
-  <si>
-    <t>Allen Hurns</t>
-  </si>
-  <si>
-    <t>Jags D</t>
-  </si>
-  <si>
-    <t>Giovani Bernard</t>
-  </si>
-  <si>
-    <t>Marquise Lee</t>
-  </si>
-  <si>
-    <t>Pierre Garcon</t>
-  </si>
-  <si>
-    <t>DeVante Parker</t>
-  </si>
-  <si>
-    <t>Jamison Crowder</t>
-  </si>
-  <si>
     <t>Kenny Golladay</t>
   </si>
   <si>
-    <t>Jordan Wilkins</t>
-  </si>
-  <si>
-    <t>Philly D</t>
-  </si>
-  <si>
     <t>Mike Williams</t>
   </si>
   <si>
     <t>DJ Moore</t>
   </si>
   <si>
-    <t>John Ross</t>
-  </si>
-  <si>
     <t>James White</t>
   </si>
   <si>
-    <t>Chris Ivory</t>
-  </si>
-  <si>
-    <t>Josh Doctson</t>
-  </si>
-  <si>
     <t>Dede Westbrook</t>
   </si>
   <si>
-    <t>Jimmy Garoppolo</t>
-  </si>
-  <si>
     <t>Jack Doyle</t>
   </si>
   <si>
-    <t>Devontae Booker</t>
-  </si>
-  <si>
     <t>Justin Tucker</t>
   </si>
   <si>
     <t>Rams D</t>
   </si>
   <si>
-    <t>Vikings D</t>
-  </si>
-  <si>
     <t>Ben Roethlisberger</t>
   </si>
   <si>
@@ -293,24 +228,12 @@
     <t>Christian Kirk</t>
   </si>
   <si>
-    <t>Alex Smith</t>
-  </si>
-  <si>
-    <t>Ben Watson</t>
-  </si>
-  <si>
     <t>Nelson Agholor</t>
   </si>
   <si>
     <t>Greg Zuerlein</t>
   </si>
   <si>
-    <t>Marcus Mariota</t>
-  </si>
-  <si>
-    <t>Ryan Tannehill</t>
-  </si>
-  <si>
     <t>Dak Prescott</t>
   </si>
   <si>
@@ -320,33 +243,15 @@
     <t>Matt Bryant</t>
   </si>
   <si>
-    <t>Dez Bryant</t>
-  </si>
-  <si>
     <t>Latavius Murray</t>
   </si>
   <si>
-    <t>Patriots D</t>
-  </si>
-  <si>
     <t>Derrius Guice</t>
   </si>
   <si>
-    <t>Ravens D</t>
-  </si>
-  <si>
     <t>Peyton Barber</t>
   </si>
   <si>
-    <t>Chargers D</t>
-  </si>
-  <si>
-    <t>Texans D</t>
-  </si>
-  <si>
-    <t>Wil Lutz</t>
-  </si>
-  <si>
     <t>Broncos D</t>
   </si>
   <si>
@@ -356,27 +261,12 @@
     <t>Michael Gallup</t>
   </si>
   <si>
-    <t>New Orleans D</t>
-  </si>
-  <si>
-    <t>Chris Boswell</t>
-  </si>
-  <si>
-    <t>Pittsburgh D</t>
-  </si>
-  <si>
     <t>Dallas D</t>
   </si>
   <si>
-    <t>Charles Clay</t>
-  </si>
-  <si>
     <t>Tyler Lockett</t>
   </si>
   <si>
-    <t>LaGarrette Blount</t>
-  </si>
-  <si>
     <t>Jake Elliot</t>
   </si>
   <si>
@@ -389,36 +279,9 @@
     <t>Robbie Gould</t>
   </si>
   <si>
-    <t>Derek Carr</t>
-  </si>
-  <si>
-    <t>Dan Bailey</t>
-  </si>
-  <si>
-    <t>Cameron Brate</t>
-  </si>
-  <si>
-    <t>Rishard Matthews</t>
-  </si>
-  <si>
     <t>Harrison Butker</t>
   </si>
   <si>
-    <t>Lions D</t>
-  </si>
-  <si>
-    <t>Graham Gano</t>
-  </si>
-  <si>
-    <t>Samaje Perine</t>
-  </si>
-  <si>
-    <t>Anthony Miller</t>
-  </si>
-  <si>
-    <t>Jeremy Hill</t>
-  </si>
-  <si>
     <t>Pick</t>
   </si>
   <si>
@@ -452,51 +315,6 @@
     <t>Position Rank</t>
   </si>
   <si>
-    <t>Adam Thielen (1st Year Keeper)</t>
-  </si>
-  <si>
-    <t>Devontae Freeman (1st Year Keeper)</t>
-  </si>
-  <si>
-    <t>DeAndre Hopkins (1st Year Keeper)</t>
-  </si>
-  <si>
-    <t>Jordan Howard (1st Year Keeper)</t>
-  </si>
-  <si>
-    <t>Michael Thomas (1st Year Keeper)</t>
-  </si>
-  <si>
-    <t>Doug Baldwin (1st Year Keeper)</t>
-  </si>
-  <si>
-    <t>Davante Adams (15th Round, 1st Year Keeper)</t>
-  </si>
-  <si>
-    <t>Alvin Kamara (1st Year Keeper)</t>
-  </si>
-  <si>
-    <t>Deshaun Watson (15th Round, 1st Year Keeper)</t>
-  </si>
-  <si>
-    <t>Tyreke Hill (15th Round, 1st Year Keeper)</t>
-  </si>
-  <si>
-    <t>Carlos Hyde (1st Year Keeper)</t>
-  </si>
-  <si>
-    <t>Josh Gordon (15th Round, 1st Year Keeper)</t>
-  </si>
-  <si>
-    <t>David Johnson (1st Year Keeper)</t>
-  </si>
-  <si>
-    <t>Jared Goff (1st Year Keeper)</t>
-  </si>
-  <si>
-    <t>Odell Beckham Jr (1st Year Keeper)</t>
-  </si>
-  <si>
     <t>Josh Jacobs</t>
   </si>
   <si>
@@ -533,9 +351,6 @@
     <t>Juju Smith-Schuster (1st Year Keeper)</t>
   </si>
   <si>
-    <t>Travis Kelce (End Year Keeper)</t>
-  </si>
-  <si>
     <t>David Montgomery</t>
   </si>
   <si>
@@ -560,9 +375,6 @@
     <t>Austin Ekeler</t>
   </si>
   <si>
-    <t>Sony Michel (3rd Round, 1st Year Keeper</t>
-  </si>
-  <si>
     <t>Donte Moncrief</t>
   </si>
   <si>
@@ -614,7 +426,247 @@
     <t>Lamar Jackson</t>
   </si>
   <si>
-    <t>Patrick Maholmes (1st Year Keeper)</t>
+    <t>Adam Thielen (2nd Year Keeper)</t>
+  </si>
+  <si>
+    <t>Marvin Jones Jr</t>
+  </si>
+  <si>
+    <t>Russell Wilson</t>
+  </si>
+  <si>
+    <t>Corey Davis</t>
+  </si>
+  <si>
+    <t>Larry Fitzgerald</t>
+  </si>
+  <si>
+    <t>Nyheim Hines</t>
+  </si>
+  <si>
+    <t>Drew Brees</t>
+  </si>
+  <si>
+    <t>Kyler Murray</t>
+  </si>
+  <si>
+    <t>Delanie Walker</t>
+  </si>
+  <si>
+    <t>Jared Goff</t>
+  </si>
+  <si>
+    <t>Jaylen Samuels</t>
+  </si>
+  <si>
+    <t>Courtland Sutton</t>
+  </si>
+  <si>
+    <t>Justin Jackson</t>
+  </si>
+  <si>
+    <t>Ronald Jones</t>
+  </si>
+  <si>
+    <t>Kallen Ballage</t>
+  </si>
+  <si>
+    <t>Ito Smith</t>
+  </si>
+  <si>
+    <t>Marques Valdes-Scantlin</t>
+  </si>
+  <si>
+    <t>Tre'Quan Smith</t>
+  </si>
+  <si>
+    <t>Baltimore D</t>
+  </si>
+  <si>
+    <t>DK Metcalf</t>
+  </si>
+  <si>
+    <t>James Washington</t>
+  </si>
+  <si>
+    <t>Tom Brady</t>
+  </si>
+  <si>
+    <t>John Brown</t>
+  </si>
+  <si>
+    <t>Kareem Hunt</t>
+  </si>
+  <si>
+    <t>Mecole Hardman</t>
+  </si>
+  <si>
+    <t>Bears D</t>
+  </si>
+  <si>
+    <t>Jacksonville D</t>
+  </si>
+  <si>
+    <t>Jalen Richard</t>
+  </si>
+  <si>
+    <t>Sam Darnold</t>
+  </si>
+  <si>
+    <t>Jimmy Graham</t>
+  </si>
+  <si>
+    <t>Darwin Thompson</t>
+  </si>
+  <si>
+    <t>Desean Jackson</t>
+  </si>
+  <si>
+    <t>Will Lutz</t>
+  </si>
+  <si>
+    <t>Ka'imi Fairbairn</t>
+  </si>
+  <si>
+    <t>Jameis Winston</t>
+  </si>
+  <si>
+    <t>Mark Andrews</t>
+  </si>
+  <si>
+    <t>DeAndre Hopkins (2nd Year Keeper)</t>
+  </si>
+  <si>
+    <t>Seattle D</t>
+  </si>
+  <si>
+    <t>Minnesota D</t>
+  </si>
+  <si>
+    <t>Keke Coutee</t>
+  </si>
+  <si>
+    <t>Deshaun Watson (15th Round, 2nd Year Keeper)</t>
+  </si>
+  <si>
+    <t>Browns D</t>
+  </si>
+  <si>
+    <t>Michael Thomas (2nd Year Keeper)</t>
+  </si>
+  <si>
+    <t>Michael Badgley</t>
+  </si>
+  <si>
+    <t>Adrian Peterson</t>
+  </si>
+  <si>
+    <t>New England D</t>
+  </si>
+  <si>
+    <t>Bills D</t>
+  </si>
+  <si>
+    <t>Baker Mayfield (15th Round, 1st Year Keeper)</t>
+  </si>
+  <si>
+    <t>Austin Hooper</t>
+  </si>
+  <si>
+    <t>Tyreek Hill (15th Round, 2nd Year Keeper)</t>
+  </si>
+  <si>
+    <t>Greg Olsen</t>
+  </si>
+  <si>
+    <t>Alvin Kamara (15th Round, 2nd Year Keeper)</t>
+  </si>
+  <si>
+    <t>Hunter Renfrow</t>
+  </si>
+  <si>
+    <t>Davante Adams (15th Round, 2nd Year Keeper)</t>
+  </si>
+  <si>
+    <t>Darren Waller</t>
+  </si>
+  <si>
+    <t>Houston D</t>
+  </si>
+  <si>
+    <t>Odell Beckham Jr (15th Round, 2nd Year Keeper)</t>
+  </si>
+  <si>
+    <t>Philip Lindsay (15th Round, 1st Year Keeper)</t>
+  </si>
+  <si>
+    <t>Amari Cooper (15th Round, 1st Year Keeper)</t>
+  </si>
+  <si>
+    <t>Rob Gronkowski</t>
+  </si>
+  <si>
+    <t>James Conner (15th Round, 1st Year Keeper)</t>
+  </si>
+  <si>
+    <t>Ryan Fitzpatrick</t>
+  </si>
+  <si>
+    <t>David Johnson (2nd Year Keeper)</t>
+  </si>
+  <si>
+    <t>Kyle Rudolph</t>
+  </si>
+  <si>
+    <t>Carlos Hyde</t>
+  </si>
+  <si>
+    <t>Daniel Jones</t>
+  </si>
+  <si>
+    <t>Jason Witten</t>
+  </si>
+  <si>
+    <t>Damien Williams (1st Year Keeper)</t>
+  </si>
+  <si>
+    <t>Brett Maher</t>
+  </si>
+  <si>
+    <t>Saints D</t>
+  </si>
+  <si>
+    <t>Patrick Mahomes (1st Year Keeper)</t>
+  </si>
+  <si>
+    <t>Aaron Jones (1st Year Keeper)</t>
+  </si>
+  <si>
+    <t>Christian McCaffrey (1st Year Keeper)</t>
+  </si>
+  <si>
+    <t>Joe Mixon (1st Year Keeper)</t>
+  </si>
+  <si>
+    <t>Brandin Cooks (1st Year Keeper)</t>
+  </si>
+  <si>
+    <t>Sony Michel (3rd Round, 1st Year Keeper)</t>
+  </si>
+  <si>
+    <t>Josh Gordon (2nd Year Keeper)</t>
+  </si>
+  <si>
+    <t>Dalvin Cook (1st Year Keeper)</t>
+  </si>
+  <si>
+    <t>Cooper Kupp (1st Year Keeper)</t>
+  </si>
+  <si>
+    <t>Travis Kelce (2nd Year Keeper)</t>
+  </si>
+  <si>
+    <t>Calvin Ridley (1st Year Keeper)</t>
   </si>
 </sst>
 </file>
@@ -934,21 +986,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -963,10 +1015,10 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -982,13 +1034,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G2" t="str">
         <f>F2&amp;(COUNTIF($F$2:$F2,$F2))</f>
@@ -1009,13 +1061,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G3" t="str">
         <f>F3&amp;(COUNTIF($F$2:$F3,$F3))</f>
@@ -1036,13 +1088,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G4" t="str">
         <f>F4&amp;(COUNTIF($F$2:$F4,$F4))</f>
@@ -1066,10 +1118,10 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G5" t="str">
         <f>F5&amp;(COUNTIF($F$2:$F5,$F5))</f>
@@ -1090,13 +1142,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>198</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G6" t="str">
         <f>F6&amp;(COUNTIF($F$2:$F6,$F6))</f>
@@ -1117,13 +1169,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G7" t="str">
         <f>F7&amp;(COUNTIF($F$2:$F7,$F7))</f>
@@ -1144,13 +1196,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G8" t="str">
         <f>F8&amp;(COUNTIF($F$2:$F8,$F8))</f>
@@ -1171,13 +1223,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G9" t="str">
         <f>F9&amp;(COUNTIF($F$2:$F9,$F9))</f>
@@ -1198,13 +1250,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G10" t="str">
         <f>F10&amp;(COUNTIF($F$2:$F10,$F10))</f>
@@ -1225,13 +1277,13 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G11" t="str">
         <f>F11&amp;(COUNTIF($F$2:$F11,$F11))</f>
@@ -1252,13 +1304,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G12" t="str">
         <f>F12&amp;(COUNTIF($F$2:$F12,$F12))</f>
@@ -1282,10 +1334,10 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G13" t="str">
         <f>F13&amp;(COUNTIF($F$2:$F13,$F13))</f>
@@ -1309,10 +1361,10 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="G14" t="str">
         <f>F14&amp;(COUNTIF($F$2:$F14,$F14))</f>
@@ -1333,13 +1385,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G15" t="str">
         <f>F15&amp;(COUNTIF($F$2:$F15,$F15))</f>
@@ -1363,10 +1415,10 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G16" t="str">
         <f>F16&amp;(COUNTIF($F$2:$F16,$F16))</f>
@@ -1387,13 +1439,13 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G17" t="str">
         <f>F17&amp;(COUNTIF($F$2:$F17,$F17))</f>
@@ -1414,13 +1466,13 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G18" t="str">
         <f>F18&amp;(COUNTIF($F$2:$F18,$F18))</f>
@@ -1441,13 +1493,13 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G19" t="str">
         <f>F19&amp;(COUNTIF($F$2:$F19,$F19))</f>
@@ -1468,13 +1520,13 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G20" t="str">
         <f>F20&amp;(COUNTIF($F$2:$F20,$F20))</f>
@@ -1495,13 +1547,13 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="G21" t="str">
         <f>F21&amp;(COUNTIF($F$2:$F21,$F21))</f>
@@ -1525,10 +1577,10 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G22" t="str">
         <f>F22&amp;(COUNTIF($F$2:$F22,$F22))</f>
@@ -1549,13 +1601,13 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G23" t="str">
         <f>F23&amp;(COUNTIF($F$2:$F23,$F23))</f>
@@ -1576,13 +1628,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G24" t="str">
         <f>F24&amp;(COUNTIF($F$2:$F24,$F24))</f>
@@ -1603,13 +1655,13 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G25" t="str">
         <f>F25&amp;(COUNTIF($F$2:$F25,$F25))</f>
@@ -1630,13 +1682,13 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>200</v>
       </c>
       <c r="F26" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G26" t="str">
         <f>F26&amp;(COUNTIF($F$2:$F26,$F26))</f>
@@ -1657,13 +1709,13 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="F27" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="G27" t="str">
         <f>F27&amp;(COUNTIF($F$2:$F27,$F27))</f>
@@ -1684,13 +1736,13 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G28" t="str">
         <f>F28&amp;(COUNTIF($F$2:$F28,$F28))</f>
@@ -1714,10 +1766,10 @@
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G29" t="str">
         <f>F29&amp;(COUNTIF($F$2:$F29,$F29))</f>
@@ -1738,13 +1790,13 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G30" t="str">
         <f>F30&amp;(COUNTIF($F$2:$F30,$F30))</f>
@@ -1765,13 +1817,13 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G31" t="str">
         <f>F31&amp;(COUNTIF($F$2:$F31,$F31))</f>
@@ -1792,13 +1844,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G32" t="str">
         <f>F32&amp;(COUNTIF($F$2:$F32,$F32))</f>
@@ -1819,13 +1871,13 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G33" t="str">
         <f>F33&amp;(COUNTIF($F$2:$F33,$F33))</f>
@@ -1846,13 +1898,13 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="F34" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G34" t="str">
         <f>F34&amp;(COUNTIF($F$2:$F34,$F34))</f>
@@ -1873,13 +1925,13 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F35" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G35" t="str">
         <f>F35&amp;(COUNTIF($F$2:$F35,$F35))</f>
@@ -1900,13 +1952,13 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="F36" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G36" t="str">
         <f>F36&amp;(COUNTIF($F$2:$F36,$F36))</f>
@@ -1927,13 +1979,13 @@
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F37" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G37" t="str">
         <f>F37&amp;(COUNTIF($F$2:$F37,$F37))</f>
@@ -1954,13 +2006,13 @@
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="F38" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="G38" t="str">
         <f>F38&amp;(COUNTIF($F$2:$F38,$F38))</f>
@@ -1981,13 +2033,13 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G39" t="str">
         <f>F39&amp;(COUNTIF($F$2:$F39,$F39))</f>
@@ -2011,10 +2063,10 @@
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="F40" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G40" t="str">
         <f>F40&amp;(COUNTIF($F$2:$F40,$F40))</f>
@@ -2035,13 +2087,13 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F41" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G41" t="str">
         <f>F41&amp;(COUNTIF($F$2:$F41,$F41))</f>
@@ -2062,13 +2114,13 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="F42" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G42" t="str">
         <f>F42&amp;(COUNTIF($F$2:$F42,$F42))</f>
@@ -2089,13 +2141,13 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="F43" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G43" t="str">
         <f>F43&amp;(COUNTIF($F$2:$F43,$F43))</f>
@@ -2116,13 +2168,13 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G44" t="str">
         <f>F44&amp;(COUNTIF($F$2:$F44,$F44))</f>
@@ -2143,13 +2195,13 @@
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G45" t="str">
         <f>F45&amp;(COUNTIF($F$2:$F45,$F45))</f>
@@ -2173,10 +2225,10 @@
         <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G46" t="str">
         <f>F46&amp;(COUNTIF($F$2:$F46,$F46))</f>
@@ -2197,13 +2249,13 @@
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="F47" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G47" t="str">
         <f>F47&amp;(COUNTIF($F$2:$F47,$F47))</f>
@@ -2224,13 +2276,13 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G48" t="str">
         <f>F48&amp;(COUNTIF($F$2:$F48,$F48))</f>
@@ -2251,13 +2303,13 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="F49" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G49" t="str">
         <f>F49&amp;(COUNTIF($F$2:$F49,$F49))</f>
@@ -2278,13 +2330,13 @@
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G50" t="str">
         <f>F50&amp;(COUNTIF($F$2:$F50,$F50))</f>
@@ -2305,13 +2357,13 @@
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F51" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="G51" t="str">
         <f>F51&amp;(COUNTIF($F$2:$F51,$F51))</f>
@@ -2332,13 +2384,13 @@
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F52" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="G52" t="str">
         <f>F52&amp;(COUNTIF($F$2:$F52,$F52))</f>
@@ -2362,10 +2414,10 @@
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G53" t="str">
         <f>F53&amp;(COUNTIF($F$2:$F53,$F53))</f>
@@ -2386,13 +2438,13 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="F54" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G54" t="str">
         <f>F54&amp;(COUNTIF($F$2:$F54,$F54))</f>
@@ -2413,13 +2465,13 @@
         <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="F55" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G55" t="str">
         <f>F55&amp;(COUNTIF($F$2:$F55,$F55))</f>
@@ -2440,13 +2492,13 @@
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="F56" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G56" t="str">
         <f>F56&amp;(COUNTIF($F$2:$F56,$F56))</f>
@@ -2467,13 +2519,13 @@
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G57" t="str">
         <f>F57&amp;(COUNTIF($F$2:$F57,$F57))</f>
@@ -2494,13 +2546,13 @@
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="G58" t="str">
         <f>F58&amp;(COUNTIF($F$2:$F58,$F58))</f>
@@ -2524,10 +2576,10 @@
         <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G59" t="str">
         <f>F59&amp;(COUNTIF($F$2:$F59,$F59))</f>
@@ -2548,13 +2600,13 @@
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F60" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G60" t="str">
         <f>F60&amp;(COUNTIF($F$2:$F60,$F60))</f>
@@ -2575,13 +2627,13 @@
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F61" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G61" t="str">
         <f>F61&amp;(COUNTIF($F$2:$F61,$F61))</f>
@@ -2602,13 +2654,13 @@
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>176</v>
+        <v>112</v>
       </c>
       <c r="F62" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G62" t="str">
         <f>F62&amp;(COUNTIF($F$2:$F62,$F62))</f>
@@ -2629,13 +2681,13 @@
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="F63" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G63" t="str">
         <f>F63&amp;(COUNTIF($F$2:$F63,$F63))</f>
@@ -2659,10 +2711,10 @@
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G64" t="str">
         <f>F64&amp;(COUNTIF($F$2:$F64,$F64))</f>
@@ -2683,13 +2735,13 @@
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c r="F65" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="G65" t="str">
         <f>F65&amp;(COUNTIF($F$2:$F65,$F65))</f>
@@ -2710,13 +2762,13 @@
         <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G66" t="str">
         <f>F66&amp;(COUNTIF($F$2:$F66,$F66))</f>
@@ -2737,13 +2789,13 @@
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G67" t="str">
         <f>F67&amp;(COUNTIF($F$2:$F67,$F67))</f>
@@ -2764,13 +2816,13 @@
         <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="F68" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G68" t="str">
         <f>F68&amp;(COUNTIF($F$2:$F68,$F68))</f>
@@ -2791,13 +2843,13 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="F69" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G69" t="str">
         <f>F69&amp;(COUNTIF($F$2:$F69,$F69))</f>
@@ -2821,10 +2873,10 @@
         <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="F70" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G70" t="str">
         <f>F70&amp;(COUNTIF($F$2:$F70,$F70))</f>
@@ -2845,13 +2897,13 @@
         <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E71" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F71" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G71" t="str">
         <f>F71&amp;(COUNTIF($F$2:$F71,$F71))</f>
@@ -2872,13 +2924,13 @@
         <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="F72" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G72" t="str">
         <f>F72&amp;(COUNTIF($F$2:$F72,$F72))</f>
@@ -2899,13 +2951,13 @@
         <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="F73" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G73" t="str">
         <f>F73&amp;(COUNTIF($F$2:$F73,$F73))</f>
@@ -2926,13 +2978,13 @@
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E74" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="F74" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G74" t="str">
         <f>F74&amp;(COUNTIF($F$2:$F74,$F74))</f>
@@ -2942,7 +2994,7 @@
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f>TEXT(D75,) &amp;COUNTIF($D$2:$D75,$D75)</f>
-        <v>Willis8</v>
+        <v>Ean6</v>
       </c>
       <c r="B75">
         <f t="shared" si="4"/>
@@ -2953,13 +3005,13 @@
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="F75" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G75" t="str">
         <f>F75&amp;(COUNTIF($F$2:$F75,$F75))</f>
@@ -2980,13 +3032,13 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F76" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G76" t="str">
         <f>F76&amp;(COUNTIF($F$2:$F76,$F76))</f>
@@ -3010,10 +3062,10 @@
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="F77" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="G77" t="str">
         <f>F77&amp;(COUNTIF($F$2:$F77,$F77))</f>
@@ -3034,13 +3086,13 @@
         <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="F78" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G78" t="str">
         <f>F78&amp;(COUNTIF($F$2:$F78,$F78))</f>
@@ -3050,7 +3102,7 @@
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f>TEXT(D79,) &amp;COUNTIF($D$2:$D79,$D79)</f>
-        <v>Willis9</v>
+        <v>Willis8</v>
       </c>
       <c r="B79">
         <f t="shared" si="4"/>
@@ -3061,13 +3113,13 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F79" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G79" t="str">
         <f>F79&amp;(COUNTIF($F$2:$F79,$F79))</f>
@@ -3088,13 +3140,13 @@
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="F80" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="G80" t="str">
         <f>F80&amp;(COUNTIF($F$2:$F80,$F80))</f>
@@ -3115,13 +3167,13 @@
         <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E81" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="G81" t="str">
         <f>F81&amp;(COUNTIF($F$2:$F81,$F81))</f>
@@ -3142,13 +3194,13 @@
         <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E82" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F82" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="G82" t="str">
         <f>F82&amp;(COUNTIF($F$2:$F82,$F82))</f>
@@ -3172,10 +3224,10 @@
         <v>4</v>
       </c>
       <c r="E83" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="F83" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="G83" t="str">
         <f>F83&amp;(COUNTIF($F$2:$F83,$F83))</f>
@@ -3196,13 +3248,13 @@
         <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E84" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="F84" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G84" t="str">
         <f>F84&amp;(COUNTIF($F$2:$F84,$F84))</f>
@@ -3223,13 +3275,13 @@
         <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
       <c r="F85" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="G85" t="str">
         <f>F85&amp;(COUNTIF($F$2:$F85,$F85))</f>
@@ -3250,13 +3302,13 @@
         <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F86" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="G86" t="str">
         <f>F86&amp;(COUNTIF($F$2:$F86,$F86))</f>
@@ -3277,17 +3329,17 @@
         <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E87" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="F87" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="G87" t="str">
         <f>F87&amp;(COUNTIF($F$2:$F87,$F87))</f>
-        <v>TE10</v>
+        <v>RB39</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3307,10 +3359,10 @@
         <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F88" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G88" t="str">
         <f>F88&amp;(COUNTIF($F$2:$F88,$F88))</f>
@@ -3331,17 +3383,17 @@
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E89" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="F89" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="G89" t="str">
         <f>F89&amp;(COUNTIF($F$2:$F89,$F89))</f>
-        <v>QB7</v>
+        <v>WR34</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3358,17 +3410,17 @@
         <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E90" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="F90" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="G90" t="str">
         <f>F90&amp;(COUNTIF($F$2:$F90,$F90))</f>
-        <v>WR34</v>
+        <v>QB7</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3385,13 +3437,13 @@
         <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="F91" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G91" t="str">
         <f>F91&amp;(COUNTIF($F$2:$F91,$F91))</f>
@@ -3401,7 +3453,7 @@
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f>TEXT(D92,) &amp;COUNTIF($D$2:$D92,$D92)</f>
-        <v>Willis10</v>
+        <v>Willis9</v>
       </c>
       <c r="B92">
         <f t="shared" si="4"/>
@@ -3412,13 +3464,13 @@
         <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="F92" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G92" t="str">
         <f>F92&amp;(COUNTIF($F$2:$F92,$F92))</f>
@@ -3439,17 +3491,17 @@
         <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E93" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="F93" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G93" t="str">
         <f>F93&amp;(COUNTIF($F$2:$F93,$F93))</f>
-        <v>RB39</v>
+        <v>RB40</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3469,14 +3521,14 @@
         <v>5</v>
       </c>
       <c r="E94" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="F94" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="G94" t="str">
         <f>F94&amp;(COUNTIF($F$2:$F94,$F94))</f>
-        <v>RB40</v>
+        <v>WR37</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3493,23 +3545,23 @@
         <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E95" t="s">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="F95" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="G95" t="str">
         <f>F95&amp;(COUNTIF($F$2:$F95,$F95))</f>
-        <v>TE11</v>
+        <v>QB8</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f>TEXT(D96,) &amp;COUNTIF($D$2:$D96,$D96)</f>
-        <v>Ean6</v>
+        <v>Ean7</v>
       </c>
       <c r="B96">
         <f t="shared" si="4"/>
@@ -3520,23 +3572,23 @@
         <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="F96" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="G96" t="str">
         <f>F96&amp;(COUNTIF($F$2:$F96,$F96))</f>
-        <v>WR37</v>
+        <v>QB9</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f>TEXT(D97,) &amp;COUNTIF($D$2:$D97,$D97)</f>
-        <v>Jared7</v>
+        <v>Majors9</v>
       </c>
       <c r="B97">
         <f t="shared" si="4"/>
@@ -3547,23 +3599,23 @@
         <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E97" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="F97" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="G97" t="str">
         <f>F97&amp;(COUNTIF($F$2:$F97,$F97))</f>
-        <v>QB8</v>
+        <v>TE10</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f>TEXT(D98,) &amp;COUNTIF($D$2:$D98,$D98)</f>
-        <v>Jared8</v>
+        <v>Jared7</v>
       </c>
       <c r="B98">
         <f t="shared" si="4"/>
@@ -3574,23 +3626,23 @@
         <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="F98" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="G98" t="str">
         <f>F98&amp;(COUNTIF($F$2:$F98,$F98))</f>
-        <v>TE12</v>
+        <v>QB10</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f>TEXT(D99,) &amp;COUNTIF($D$2:$D99,$D99)</f>
-        <v>Willis11</v>
+        <v>Ean8</v>
       </c>
       <c r="B99">
         <f t="shared" si="4"/>
@@ -3601,17 +3653,17 @@
         <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E99" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="F99" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="G99" t="str">
         <f>F99&amp;(COUNTIF($F$2:$F99,$F99))</f>
-        <v>WR38</v>
+        <v>RB41</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3628,17 +3680,17 @@
         <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E100" t="s">
         <v>137</v>
       </c>
       <c r="F100" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="G100" t="str">
         <f>F100&amp;(COUNTIF($F$2:$F100,$F100))</f>
-        <v>RB41</v>
+        <v>WR38</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3658,14 +3710,14 @@
         <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="F101" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="G101" t="str">
         <f>F101&amp;(COUNTIF($F$2:$F101,$F101))</f>
-        <v>WR39</v>
+        <v>RB42</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3682,23 +3734,23 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E102" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="F102" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="G102" t="str">
         <f>F102&amp;(COUNTIF($F$2:$F102,$F102))</f>
-        <v>DST1</v>
+        <v>RB43</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f>TEXT(D103,) &amp;COUNTIF($D$2:$D103,$D103)</f>
-        <v>Willis12</v>
+        <v>Willis10</v>
       </c>
       <c r="B103">
         <f t="shared" si="4"/>
@@ -3709,17 +3761,17 @@
         <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F103" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="G103" t="str">
         <f>F103&amp;(COUNTIF($F$2:$F103,$F103))</f>
-        <v>RB42</v>
+        <v>TE11</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3736,17 +3788,17 @@
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="F104" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="G104" t="str">
         <f>F104&amp;(COUNTIF($F$2:$F104,$F104))</f>
-        <v>WR40</v>
+        <v>RB44</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3763,23 +3815,23 @@
         <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E105" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="F105" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="G105" t="str">
         <f>F105&amp;(COUNTIF($F$2:$F105,$F105))</f>
-        <v>WR41</v>
+        <v>RB45</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f>TEXT(D106,) &amp;COUNTIF($D$2:$D106,$D106)</f>
-        <v>Majors9</v>
+        <v>Majors10</v>
       </c>
       <c r="B106">
         <f t="shared" si="4"/>
@@ -3790,17 +3842,17 @@
         <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E106" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="F106" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G106" t="str">
         <f>F106&amp;(COUNTIF($F$2:$F106,$F106))</f>
-        <v>WR42</v>
+        <v>WR39</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3820,14 +3872,14 @@
         <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="F107" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G107" t="str">
         <f>F107&amp;(COUNTIF($F$2:$F107,$F107))</f>
-        <v>WR43</v>
+        <v>WR40</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3844,17 +3896,17 @@
         <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E108" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F108" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="G108" t="str">
         <f>F108&amp;(COUNTIF($F$2:$F108,$F108))</f>
-        <v>WR44</v>
+        <v>QB11</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3871,17 +3923,17 @@
         <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E109" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="F109" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="G109" t="str">
         <f>F109&amp;(COUNTIF($F$2:$F109,$F109))</f>
-        <v>RB43</v>
+        <v>DST1</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3898,17 +3950,17 @@
         <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E110" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="F110" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="G110" t="str">
         <f>F110&amp;(COUNTIF($F$2:$F110,$F110))</f>
-        <v>DST2</v>
+        <v>WR41</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3925,17 +3977,17 @@
         <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E111" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="F111" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G111" t="str">
         <f>F111&amp;(COUNTIF($F$2:$F111,$F111))</f>
-        <v>WR45</v>
+        <v>WR42</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3955,20 +4007,20 @@
         <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="F112" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="G112" t="str">
         <f>F112&amp;(COUNTIF($F$2:$F112,$F112))</f>
-        <v>WR46</v>
+        <v>QB12</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f>TEXT(D113,) &amp;COUNTIF($D$2:$D113,$D113)</f>
-        <v>Majors10</v>
+        <v>Majors11</v>
       </c>
       <c r="B113">
         <f t="shared" si="4"/>
@@ -3979,17 +4031,17 @@
         <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E113" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F113" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="G113" t="str">
         <f>F113&amp;(COUNTIF($F$2:$F113,$F113))</f>
-        <v>WR47</v>
+        <v>QB13</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -4006,17 +4058,17 @@
         <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E114" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="F114" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="G114" t="str">
         <f>F114&amp;(COUNTIF($F$2:$F114,$F114))</f>
-        <v>RB44</v>
+        <v>WR43</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -4033,23 +4085,23 @@
         <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="F115" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G115" t="str">
         <f>F115&amp;(COUNTIF($F$2:$F115,$F115))</f>
-        <v>RB45</v>
+        <v>RB46</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f>TEXT(D116,) &amp;COUNTIF($D$2:$D116,$D116)</f>
-        <v>Willis13</v>
+        <v>Willis11</v>
       </c>
       <c r="B116">
         <f t="shared" si="4"/>
@@ -4060,17 +4112,17 @@
         <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="F116" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G116" t="str">
         <f>F116&amp;(COUNTIF($F$2:$F116,$F116))</f>
-        <v>WR48</v>
+        <v>WR44</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -4087,17 +4139,17 @@
         <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E117" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="F117" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="G117" t="str">
         <f>F117&amp;(COUNTIF($F$2:$F117,$F117))</f>
-        <v>WR49</v>
+        <v>DST2</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -4117,14 +4169,14 @@
         <v>5</v>
       </c>
       <c r="E118" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F118" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="G118" t="str">
         <f>F118&amp;(COUNTIF($F$2:$F118,$F118))</f>
-        <v>QB9</v>
+        <v>QB14</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -4141,23 +4193,23 @@
         <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E119" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="F119" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="G119" t="str">
         <f>F119&amp;(COUNTIF($F$2:$F119,$F119))</f>
-        <v>TE13</v>
+        <v>DST3</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f>TEXT(D120,) &amp;COUNTIF($D$2:$D120,$D120)</f>
-        <v>Ean7</v>
+        <v>Ean9</v>
       </c>
       <c r="B120">
         <f t="shared" si="4"/>
@@ -4168,23 +4220,23 @@
         <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E120" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="F120" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G120" t="str">
         <f>F120&amp;(COUNTIF($F$2:$F120,$F120))</f>
-        <v>RB46</v>
+        <v>RB47</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f>TEXT(D121,) &amp;COUNTIF($D$2:$D121,$D121)</f>
-        <v>Jared9</v>
+        <v>Jared8</v>
       </c>
       <c r="B121">
         <f t="shared" si="4"/>
@@ -4195,23 +4247,23 @@
         <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E121" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="F121" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="G121" t="str">
         <f>F121&amp;(COUNTIF($F$2:$F121,$F121))</f>
-        <v>K1</v>
+        <v>QB15</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f>TEXT(D122,) &amp;COUNTIF($D$2:$D122,$D122)</f>
-        <v>Jared10</v>
+        <v>Jared9</v>
       </c>
       <c r="B122">
         <f t="shared" si="4"/>
@@ -4222,23 +4274,23 @@
         <v>11</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E122" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="F122" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="G122" t="str">
         <f>F122&amp;(COUNTIF($F$2:$F122,$F122))</f>
-        <v>DST3</v>
+        <v>TE12</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f>TEXT(D123,) &amp;COUNTIF($D$2:$D123,$D123)</f>
-        <v>Willis14</v>
+        <v>Ean10</v>
       </c>
       <c r="B123">
         <f t="shared" si="4"/>
@@ -4249,17 +4301,17 @@
         <v>11</v>
       </c>
       <c r="D123" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E123" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="F123" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="G123" t="str">
         <f>F123&amp;(COUNTIF($F$2:$F123,$F123))</f>
-        <v>DST4</v>
+        <v>RB48</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -4276,17 +4328,17 @@
         <v>11</v>
       </c>
       <c r="D124" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E124" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="F124" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="G124" t="str">
         <f>F124&amp;(COUNTIF($F$2:$F124,$F124))</f>
-        <v>QB10</v>
+        <v>RB49</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -4306,14 +4358,14 @@
         <v>5</v>
       </c>
       <c r="E125" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F125" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="G125" t="str">
         <f>F125&amp;(COUNTIF($F$2:$F125,$F125))</f>
-        <v>QB11</v>
+        <v>DST4</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -4330,23 +4382,23 @@
         <v>11</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E126" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="F126" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G126" t="str">
         <f>F126&amp;(COUNTIF($F$2:$F126,$F126))</f>
-        <v>WR50</v>
+        <v>WR45</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f>TEXT(D127,) &amp;COUNTIF($D$2:$D127,$D127)</f>
-        <v>Willis15</v>
+        <v>Willis12</v>
       </c>
       <c r="B127">
         <f t="shared" si="4"/>
@@ -4357,17 +4409,17 @@
         <v>11</v>
       </c>
       <c r="D127" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="F127" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="G127" t="str">
         <f>F127&amp;(COUNTIF($F$2:$F127,$F127))</f>
-        <v>QB12</v>
+        <v>K1</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -4384,17 +4436,17 @@
         <v>11</v>
       </c>
       <c r="D128" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F128" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="G128" t="str">
         <f>F128&amp;(COUNTIF($F$2:$F128,$F128))</f>
-        <v>TE14</v>
+        <v>K2</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -4411,23 +4463,23 @@
         <v>11</v>
       </c>
       <c r="D129" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E129" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="F129" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="G129" t="str">
         <f>F129&amp;(COUNTIF($F$2:$F129,$F129))</f>
-        <v>WR51</v>
+        <v>K3</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
         <f>TEXT(D130,) &amp;COUNTIF($D$2:$D130,$D130)</f>
-        <v>Majors11</v>
+        <v>Majors12</v>
       </c>
       <c r="B130">
         <f t="shared" si="4"/>
@@ -4438,17 +4490,17 @@
         <v>11</v>
       </c>
       <c r="D130" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E130" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="F130" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="G130" t="str">
         <f>F130&amp;(COUNTIF($F$2:$F130,$F130))</f>
-        <v>K2</v>
+        <v>K4</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4468,14 +4520,14 @@
         <v>4</v>
       </c>
       <c r="E131" t="s">
+        <v>159</v>
+      </c>
+      <c r="F131" t="s">
         <v>87</v>
-      </c>
-      <c r="F131" t="s">
-        <v>131</v>
       </c>
       <c r="G131" t="str">
         <f>F131&amp;(COUNTIF($F$2:$F131,$F131))</f>
-        <v>QB13</v>
+        <v>K5</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -4492,17 +4544,17 @@
         <v>11</v>
       </c>
       <c r="D132" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E132" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="F132" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="G132" t="str">
         <f>F132&amp;(COUNTIF($F$2:$F132,$F132))</f>
-        <v>QB14</v>
+        <v>QB16</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -4519,17 +4571,17 @@
         <v>11</v>
       </c>
       <c r="D133" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E133" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="F133" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="G133" t="str">
         <f>F133&amp;(COUNTIF($F$2:$F133,$F133))</f>
-        <v>QB15</v>
+        <v>TE13</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -4546,17 +4598,17 @@
         <v>12</v>
       </c>
       <c r="D134" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E134" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="F134" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="G134" t="str">
         <f>F134&amp;(COUNTIF($F$2:$F134,$F134))</f>
-        <v>K3</v>
+        <v>K6</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -4573,17 +4625,17 @@
         <v>12</v>
       </c>
       <c r="D135" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E135" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="F135" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="G135" t="str">
         <f>F135&amp;(COUNTIF($F$2:$F135,$F135))</f>
-        <v>K4</v>
+        <v>WR46</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -4603,20 +4655,20 @@
         <v>4</v>
       </c>
       <c r="E136" t="s">
-        <v>92</v>
+        <v>163</v>
       </c>
       <c r="F136" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="G136" t="str">
         <f>F136&amp;(COUNTIF($F$2:$F136,$F136))</f>
-        <v>WR52</v>
+        <v>DST5</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f>TEXT(D137,) &amp;COUNTIF($D$2:$D137,$D137)</f>
-        <v>Majors12</v>
+        <v>Majors13</v>
       </c>
       <c r="B137">
         <f t="shared" si="7"/>
@@ -4627,17 +4679,17 @@
         <v>12</v>
       </c>
       <c r="D137" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E137" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="F137" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="G137" t="str">
         <f>F137&amp;(COUNTIF($F$2:$F137,$F137))</f>
-        <v>RB47</v>
+        <v>DST6</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -4654,17 +4706,17 @@
         <v>12</v>
       </c>
       <c r="D138" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E138" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="F138" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="G138" t="str">
         <f>F138&amp;(COUNTIF($F$2:$F138,$F138))</f>
-        <v>DST5</v>
+        <v>WR47</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -4681,23 +4733,23 @@
         <v>12</v>
       </c>
       <c r="D139" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="F139" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="G139" t="str">
         <f>F139&amp;(COUNTIF($F$2:$F139,$F139))</f>
-        <v>RB48</v>
+        <v>QB17</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f>TEXT(D140,) &amp;COUNTIF($D$2:$D140,$D140)</f>
-        <v>Willis16</v>
+        <v>Willis13</v>
       </c>
       <c r="B140">
         <f t="shared" si="7"/>
@@ -4708,17 +4760,17 @@
         <v>12</v>
       </c>
       <c r="D140" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="F140" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="G140" t="str">
         <f>F140&amp;(COUNTIF($F$2:$F140,$F140))</f>
-        <v>WR53</v>
+        <v>DST7</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -4735,17 +4787,17 @@
         <v>12</v>
       </c>
       <c r="D141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E141" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="F141" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="G141" t="str">
         <f>F141&amp;(COUNTIF($F$2:$F141,$F141))</f>
-        <v>RB49</v>
+        <v>K7</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -4765,14 +4817,14 @@
         <v>5</v>
       </c>
       <c r="E142" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="F142" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="G142" t="str">
         <f>F142&amp;(COUNTIF($F$2:$F142,$F142))</f>
-        <v>DST6</v>
+        <v>WR48</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -4789,23 +4841,23 @@
         <v>12</v>
       </c>
       <c r="D143" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E143" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="F143" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="G143" t="str">
         <f>F143&amp;(COUNTIF($F$2:$F143,$F143))</f>
-        <v>RB50</v>
+        <v>K8</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f>TEXT(D144,) &amp;COUNTIF($D$2:$D144,$D144)</f>
-        <v>Ean8</v>
+        <v>Ean11</v>
       </c>
       <c r="B144">
         <f t="shared" si="7"/>
@@ -4816,23 +4868,23 @@
         <v>12</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E144" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="F144" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="G144" t="str">
         <f>F144&amp;(COUNTIF($F$2:$F144,$F144))</f>
-        <v>WR54</v>
+        <v>RB50</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f>TEXT(D145,) &amp;COUNTIF($D$2:$D145,$D145)</f>
-        <v>Jared11</v>
+        <v>Jared10</v>
       </c>
       <c r="B145">
         <f t="shared" si="7"/>
@@ -4843,23 +4895,23 @@
         <v>12</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E145" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="F145" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="G145" t="str">
         <f>F145&amp;(COUNTIF($F$2:$F145,$F145))</f>
-        <v>DST7</v>
+        <v>DST8</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f>TEXT(D146,) &amp;COUNTIF($D$2:$D146,$D146)</f>
-        <v>Jared12</v>
+        <v>Jared11</v>
       </c>
       <c r="B146">
         <f t="shared" si="7"/>
@@ -4870,23 +4922,23 @@
         <v>13</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E146" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F146" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="G146" t="str">
         <f>F146&amp;(COUNTIF($F$2:$F146,$F146))</f>
-        <v>DST8</v>
+        <v>K9</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f>TEXT(D147,) &amp;COUNTIF($D$2:$D147,$D147)</f>
-        <v>Willis17</v>
+        <v>Ean12</v>
       </c>
       <c r="B147">
         <f t="shared" si="7"/>
@@ -4897,17 +4949,17 @@
         <v>13</v>
       </c>
       <c r="D147" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E147" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="F147" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="G147" t="str">
         <f>F147&amp;(COUNTIF($F$2:$F147,$F147))</f>
-        <v>K5</v>
+        <v>DST9</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -4924,17 +4976,17 @@
         <v>13</v>
       </c>
       <c r="D148" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E148" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="F148" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="G148" t="str">
         <f>F148&amp;(COUNTIF($F$2:$F148,$F148))</f>
-        <v>DST9</v>
+        <v>WR49</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -4954,14 +5006,14 @@
         <v>5</v>
       </c>
       <c r="E149" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="F149" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="G149" t="str">
         <f>F149&amp;(COUNTIF($F$2:$F149,$F149))</f>
-        <v>WR55</v>
+        <v>K10</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -4978,23 +5030,23 @@
         <v>13</v>
       </c>
       <c r="D150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E150" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="F150" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="G150" t="str">
         <f>F150&amp;(COUNTIF($F$2:$F150,$F150))</f>
-        <v>TE15</v>
+        <v>QB18</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="str">
         <f>TEXT(D151,) &amp;COUNTIF($D$2:$D151,$D151)</f>
-        <v>Willis18</v>
+        <v>Willis14</v>
       </c>
       <c r="B151">
         <f t="shared" si="7"/>
@@ -5005,17 +5057,17 @@
         <v>13</v>
       </c>
       <c r="D151" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="F151" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="G151" t="str">
         <f>F151&amp;(COUNTIF($F$2:$F151,$F151))</f>
-        <v>WR56</v>
+        <v>TE14</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -5032,17 +5084,17 @@
         <v>13</v>
       </c>
       <c r="D152" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="F152" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="G152" t="str">
         <f>F152&amp;(COUNTIF($F$2:$F152,$F152))</f>
-        <v>DST10</v>
+        <v>WR50</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -5059,23 +5111,23 @@
         <v>13</v>
       </c>
       <c r="D153" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E153" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="F153" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="G153" t="str">
         <f>F153&amp;(COUNTIF($F$2:$F153,$F153))</f>
-        <v>K6</v>
+        <v>TE15</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="str">
         <f>TEXT(D154,) &amp;COUNTIF($D$2:$D154,$D154)</f>
-        <v>Majors13</v>
+        <v>Majors14</v>
       </c>
       <c r="B154">
         <f t="shared" si="7"/>
@@ -5086,17 +5138,17 @@
         <v>13</v>
       </c>
       <c r="D154" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E154" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="F154" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="G154" t="str">
         <f>F154&amp;(COUNTIF($F$2:$F154,$F154))</f>
-        <v>WR57</v>
+        <v>RB51</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -5116,14 +5168,14 @@
         <v>4</v>
       </c>
       <c r="E155" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="F155" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="G155" t="str">
         <f>F155&amp;(COUNTIF($F$2:$F155,$F155))</f>
-        <v>DST11</v>
+        <v>WR51</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -5140,17 +5192,17 @@
         <v>13</v>
       </c>
       <c r="D156" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E156" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="F156" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="G156" t="str">
         <f>F156&amp;(COUNTIF($F$2:$F156,$F156))</f>
-        <v>DST12</v>
+        <v>TE16</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -5167,17 +5219,17 @@
         <v>13</v>
       </c>
       <c r="D157" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E157" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="F157" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="G157" t="str">
         <f>F157&amp;(COUNTIF($F$2:$F157,$F157))</f>
-        <v>TE16</v>
+        <v>WR52</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -5194,17 +5246,17 @@
         <v>14</v>
       </c>
       <c r="D158" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E158" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="F158" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G158" t="str">
         <f>F158&amp;(COUNTIF($F$2:$F158,$F158))</f>
-        <v>WR58</v>
+        <v>WR53</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -5221,17 +5273,17 @@
         <v>14</v>
       </c>
       <c r="D159" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E159" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="F159" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="G159" t="str">
         <f>F159&amp;(COUNTIF($F$2:$F159,$F159))</f>
-        <v>RB51</v>
+        <v>TE17</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -5251,20 +5303,20 @@
         <v>4</v>
       </c>
       <c r="E160" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="F160" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="G160" t="str">
         <f>F160&amp;(COUNTIF($F$2:$F160,$F160))</f>
-        <v>RB52</v>
+        <v>TE18</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="str">
         <f>TEXT(D161,) &amp;COUNTIF($D$2:$D161,$D161)</f>
-        <v>Majors14</v>
+        <v>Jared12</v>
       </c>
       <c r="B161">
         <f t="shared" si="7"/>
@@ -5275,17 +5327,17 @@
         <v>14</v>
       </c>
       <c r="D161" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E161" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="F161" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="G161" t="str">
         <f>F161&amp;(COUNTIF($F$2:$F161,$F161))</f>
-        <v>QB16</v>
+        <v>DST10</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -5302,17 +5354,17 @@
         <v>14</v>
       </c>
       <c r="D162" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E162" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="F162" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="G162" t="str">
         <f>F162&amp;(COUNTIF($F$2:$F162,$F162))</f>
-        <v>WR59</v>
+        <v>DST11</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -5329,23 +5381,23 @@
         <v>14</v>
       </c>
       <c r="D163" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="F163" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="G163" t="str">
         <f>F163&amp;(COUNTIF($F$2:$F163,$F163))</f>
-        <v>K7</v>
+        <v>WR54</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="str">
         <f>TEXT(D164,) &amp;COUNTIF($D$2:$D164,$D164)</f>
-        <v>Willis19</v>
+        <v>Willis15</v>
       </c>
       <c r="B164">
         <f t="shared" si="7"/>
@@ -5356,17 +5408,17 @@
         <v>14</v>
       </c>
       <c r="D164" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="F164" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="G164" t="str">
         <f>F164&amp;(COUNTIF($F$2:$F164,$F164))</f>
-        <v>QB17</v>
+        <v>RB52</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -5383,17 +5435,17 @@
         <v>14</v>
       </c>
       <c r="D165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E165" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="F165" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="G165" t="str">
         <f>F165&amp;(COUNTIF($F$2:$F165,$F165))</f>
-        <v>K8</v>
+        <v>WR55</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -5413,14 +5465,14 @@
         <v>5</v>
       </c>
       <c r="E166" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="F166" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="G166" t="str">
         <f>F166&amp;(COUNTIF($F$2:$F166,$F166))</f>
-        <v>RB53</v>
+        <v>TE19</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -5437,23 +5489,23 @@
         <v>14</v>
       </c>
       <c r="D167" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E167" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="F167" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="G167" t="str">
         <f>F167&amp;(COUNTIF($F$2:$F167,$F167))</f>
-        <v>K9</v>
+        <v>RB53</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="str">
         <f>TEXT(D168,) &amp;COUNTIF($D$2:$D168,$D168)</f>
-        <v>Ean9</v>
+        <v>Ean13</v>
       </c>
       <c r="B168">
         <f t="shared" si="7"/>
@@ -5464,17 +5516,17 @@
         <v>14</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E168" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="F168" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="G168" t="str">
         <f>F168&amp;(COUNTIF($F$2:$F168,$F168))</f>
-        <v>QB18</v>
+        <v>K11</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -5491,17 +5543,17 @@
         <v>14</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E169" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="F169" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="G169" t="str">
         <f>F169&amp;(COUNTIF($F$2:$F169,$F169))</f>
-        <v>WR60</v>
+        <v>QB19</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -5518,23 +5570,23 @@
         <v>15</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E170" t="s">
-        <v>116</v>
+        <v>202</v>
       </c>
       <c r="F170" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="G170" t="str">
         <f>F170&amp;(COUNTIF($F$2:$F170,$F170))</f>
-        <v>K10</v>
+        <v>WR56</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="str">
         <f>TEXT(D171,) &amp;COUNTIF($D$2:$D171,$D171)</f>
-        <v>Willis20</v>
+        <v>Ean14</v>
       </c>
       <c r="B171">
         <f t="shared" si="7"/>
@@ -5545,17 +5597,17 @@
         <v>15</v>
       </c>
       <c r="D171" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E171" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="F171" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="G171" t="str">
         <f>F171&amp;(COUNTIF($F$2:$F171,$F171))</f>
-        <v>TE17</v>
+        <v>WR57</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -5572,17 +5624,17 @@
         <v>15</v>
       </c>
       <c r="D172" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E172" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="F172" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="G172" t="str">
         <f>F172&amp;(COUNTIF($F$2:$F172,$F172))</f>
-        <v>WR61</v>
+        <v>RB54</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -5602,20 +5654,20 @@
         <v>5</v>
       </c>
       <c r="E173" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="F173" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="G173" t="str">
         <f>F173&amp;(COUNTIF($F$2:$F173,$F173))</f>
-        <v>K11</v>
+        <v>TE20</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="str">
         <f>TEXT(D174,) &amp;COUNTIF($D$2:$D174,$D174)</f>
-        <v>Ross16</v>
+        <v>Majors15</v>
       </c>
       <c r="B174">
         <f t="shared" si="7"/>
@@ -5626,23 +5678,23 @@
         <v>15</v>
       </c>
       <c r="D174" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E174" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F174" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G174" t="str">
         <f>F174&amp;(COUNTIF($F$2:$F174,$F174))</f>
-        <v>RB54</v>
+        <v>RB55</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="str">
         <f>TEXT(D175,) &amp;COUNTIF($D$2:$D175,$D175)</f>
-        <v>Willis21</v>
+        <v>Ean15</v>
       </c>
       <c r="B175">
         <f t="shared" si="7"/>
@@ -5653,23 +5705,23 @@
         <v>15</v>
       </c>
       <c r="D175" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E175" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="F175" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="G175" t="str">
         <f>F175&amp;(COUNTIF($F$2:$F175,$F175))</f>
-        <v>DST13</v>
+        <v>QB20</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="str">
         <f>TEXT(D176,) &amp;COUNTIF($D$2:$D176,$D176)</f>
-        <v>Sam15</v>
+        <v>Matt14</v>
       </c>
       <c r="B176">
         <f t="shared" si="7"/>
@@ -5680,17 +5732,17 @@
         <v>15</v>
       </c>
       <c r="D176" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E176" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="F176" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="G176" t="str">
         <f>F176&amp;(COUNTIF($F$2:$F176,$F176))</f>
-        <v>QB19</v>
+        <v>DST12</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -5707,23 +5759,23 @@
         <v>15</v>
       </c>
       <c r="D177" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E177" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="F177" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="G177" t="str">
         <f>F177&amp;(COUNTIF($F$2:$F177,$F177))</f>
-        <v>WR62</v>
+        <v>QB21</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="str">
         <f>TEXT(D178,) &amp;COUNTIF($D$2:$D178,$D178)</f>
-        <v>Majors15</v>
+        <v>Jared15</v>
       </c>
       <c r="B178">
         <f t="shared" si="7"/>
@@ -5734,17 +5786,17 @@
         <v>15</v>
       </c>
       <c r="D178" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E178" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="F178" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="G178" t="str">
         <f>F178&amp;(COUNTIF($F$2:$F178,$F178))</f>
-        <v>K12</v>
+        <v>TE21</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -5764,20 +5816,20 @@
         <v>4</v>
       </c>
       <c r="E179" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="F179" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="G179" t="str">
         <f>F179&amp;(COUNTIF($F$2:$F179,$F179))</f>
-        <v>RB55</v>
+        <v>RB56</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="str">
         <f>TEXT(D180,) &amp;COUNTIF($D$2:$D180,$D180)</f>
-        <v>Matt14</v>
+        <v>Matt15</v>
       </c>
       <c r="B180">
         <f t="shared" si="7"/>
@@ -5788,23 +5840,23 @@
         <v>15</v>
       </c>
       <c r="D180" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E180" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="F180" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="G180" t="str">
         <f>F180&amp;(COUNTIF($F$2:$F180,$F180))</f>
-        <v>WR63</v>
+        <v>K12</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="str">
         <f>TEXT(D181,) &amp;COUNTIF($D$2:$D181,$D181)</f>
-        <v>Trevor16</v>
+        <v>Sam15</v>
       </c>
       <c r="B181">
         <f t="shared" si="7"/>
@@ -5815,20 +5867,21 @@
         <v>15</v>
       </c>
       <c r="D181" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="F181" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="G181" t="str">
         <f>F181&amp;(COUNTIF($F$2:$F181,$F181))</f>
-        <v>RB56</v>
+        <v>DST13</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G181" xr:uid="{EF44B615-2D03-4E5E-BBF9-FAE2E9C107C2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5849,12 +5902,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -5866,7 +5919,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6037,7 +6090,7 @@
       </c>
       <c r="D11" t="str">
         <f>VLOOKUP($A$1&amp;A11,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Kenny Stills</v>
+        <v>Corey Davis</v>
       </c>
       <c r="E11" t="str">
         <f>VLOOKUP($A$1&amp;$A11,'All Picks'!$A$2:$G$181,7,0)</f>
@@ -6059,11 +6112,11 @@
       </c>
       <c r="D12" t="str">
         <f>VLOOKUP($A$1&amp;A12,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Marquise Lee</v>
+        <v>Kallen Ballage</v>
       </c>
       <c r="E12" t="str">
         <f>VLOOKUP($A$1&amp;$A12,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR40</v>
+        <v>RB44</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -6081,11 +6134,11 @@
       </c>
       <c r="D13" t="str">
         <f>VLOOKUP($A$1&amp;A13,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Chris Ivory</v>
+        <v>Kareem Hunt</v>
       </c>
       <c r="E13" t="str">
         <f>VLOOKUP($A$1&amp;$A13,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>RB45</v>
+        <v>RB46</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -6103,11 +6156,11 @@
       </c>
       <c r="D14" t="str">
         <f>VLOOKUP($A$1&amp;A14,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Ben Watson</v>
+        <v>Harrison Butker</v>
       </c>
       <c r="E14" t="str">
         <f>VLOOKUP($A$1&amp;$A14,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>TE14</v>
+        <v>K2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -6125,11 +6178,11 @@
       </c>
       <c r="D15" t="str">
         <f>VLOOKUP($A$1&amp;A15,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Derrius Guice</v>
+        <v>Deshaun Watson (15th Round, 2nd Year Keeper)</v>
       </c>
       <c r="E15" t="str">
         <f>VLOOKUP($A$1&amp;$A15,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>RB48</v>
+        <v>QB17</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -6147,11 +6200,11 @@
       </c>
       <c r="D16" t="str">
         <f>VLOOKUP($A$1&amp;A16,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>New Orleans D</v>
+        <v>Tyreek Hill (15th Round, 2nd Year Keeper)</v>
       </c>
       <c r="E16" t="str">
         <f>VLOOKUP($A$1&amp;$A16,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>DST10</v>
+        <v>WR50</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -6169,11 +6222,11 @@
       </c>
       <c r="D17" t="str">
         <f>VLOOKUP($A$1&amp;A17,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Jake Elliot</v>
+        <v>Odell Beckham Jr (15th Round, 2nd Year Keeper)</v>
       </c>
       <c r="E17" t="str">
         <f>VLOOKUP($A$1&amp;$A17,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>K7</v>
+        <v>WR54</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -6183,7 +6236,7 @@
       </c>
       <c r="B18">
         <f>VLOOKUP($A$1&amp;A18,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C18">
         <f>VLOOKUP($A$1&amp;A18,'All Picks'!$A$2:$E$181,3,0)</f>
@@ -6191,11 +6244,11 @@
       </c>
       <c r="D18" t="str">
         <f>VLOOKUP($A$1&amp;A18,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Jared Goff (1st Year Keeper)</v>
+        <v>Saints D</v>
       </c>
       <c r="E18" t="str">
         <f>VLOOKUP($A$1&amp;$A18,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>QB19</v>
+        <v>DST13</v>
       </c>
     </row>
   </sheetData>
@@ -6219,12 +6272,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -6236,7 +6289,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6407,11 +6460,11 @@
       </c>
       <c r="D11" t="str">
         <f>VLOOKUP($A$1&amp;A11,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Jordan Reed</v>
+        <v>Drew Brees</v>
       </c>
       <c r="E11" t="str">
         <f>VLOOKUP($A$1&amp;$A11,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>TE11</v>
+        <v>QB8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -6429,11 +6482,11 @@
       </c>
       <c r="D12" t="str">
         <f>VLOOKUP($A$1&amp;A12,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Devontae Freeman (1st Year Keeper)</v>
+        <v>Courtland Sutton</v>
       </c>
       <c r="E12" t="str">
         <f>VLOOKUP($A$1&amp;$A12,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>RB41</v>
+        <v>WR38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -6451,11 +6504,11 @@
       </c>
       <c r="D13" t="str">
         <f>VLOOKUP($A$1&amp;A13,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Jack Doyle</v>
+        <v>Jacksonville D</v>
       </c>
       <c r="E13" t="str">
         <f>VLOOKUP($A$1&amp;$A13,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>TE13</v>
+        <v>DST3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -6473,11 +6526,11 @@
       </c>
       <c r="D14" t="str">
         <f>VLOOKUP($A$1&amp;A14,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Ben Roethlisberger</v>
+        <v>Ty Montgomery</v>
       </c>
       <c r="E14" t="str">
         <f>VLOOKUP($A$1&amp;$A14,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>QB10</v>
+        <v>RB49</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -6495,11 +6548,11 @@
       </c>
       <c r="D15" t="str">
         <f>VLOOKUP($A$1&amp;A15,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Peyton Barber</v>
+        <v>Michael Badgley</v>
       </c>
       <c r="E15" t="str">
         <f>VLOOKUP($A$1&amp;$A15,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>RB50</v>
+        <v>K8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -6517,11 +6570,11 @@
       </c>
       <c r="D16" t="str">
         <f>VLOOKUP($A$1&amp;A16,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Broncos D</v>
+        <v>Nelson Agholor</v>
       </c>
       <c r="E16" t="str">
         <f>VLOOKUP($A$1&amp;$A16,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>DST9</v>
+        <v>WR49</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -6539,11 +6592,11 @@
       </c>
       <c r="D17" t="str">
         <f>VLOOKUP($A$1&amp;A17,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Robbie Gould</v>
+        <v>James Conner (15th Round, 1st Year Keeper)</v>
       </c>
       <c r="E17" t="str">
         <f>VLOOKUP($A$1&amp;$A17,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>K9</v>
+        <v>RB53</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -6561,11 +6614,11 @@
       </c>
       <c r="D18" t="str">
         <f>VLOOKUP($A$1&amp;A18,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Rishard Matthews</v>
+        <v>David Johnson (2nd Year Keeper)</v>
       </c>
       <c r="E18" t="str">
         <f>VLOOKUP($A$1&amp;$A18,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR61</v>
+        <v>RB54</v>
       </c>
     </row>
   </sheetData>
@@ -6589,12 +6642,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -6606,7 +6659,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6799,7 +6852,7 @@
       </c>
       <c r="D12" t="str">
         <f>VLOOKUP($A$1&amp;A12,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Patrick Maholmes (1st Year Keeper)</v>
+        <v>Patrick Mahomes (1st Year Keeper)</v>
       </c>
       <c r="E12" t="str">
         <f>VLOOKUP($A$1&amp;$A12,'All Picks'!$A$2:$G$181,7,0)</f>
@@ -6821,11 +6874,11 @@
       </c>
       <c r="D13" t="str">
         <f>VLOOKUP($A$1&amp;A13,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Jordan Wilkins</v>
+        <v>Baltimore D</v>
       </c>
       <c r="E13" t="str">
         <f>VLOOKUP($A$1&amp;$A13,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>RB43</v>
+        <v>DST1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -6843,11 +6896,11 @@
       </c>
       <c r="D14" t="str">
         <f>VLOOKUP($A$1&amp;A14,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Philly D</v>
+        <v>DK Metcalf</v>
       </c>
       <c r="E14" t="str">
         <f>VLOOKUP($A$1&amp;$A14,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>DST2</v>
+        <v>WR41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -6865,11 +6918,11 @@
       </c>
       <c r="D15" t="str">
         <f>VLOOKUP($A$1&amp;A15,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Dak Prescott</v>
+        <v>Mark Andrews</v>
       </c>
       <c r="E15" t="str">
         <f>VLOOKUP($A$1&amp;$A15,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>QB15</v>
+        <v>TE13</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -6891,7 +6944,7 @@
       </c>
       <c r="E16" t="str">
         <f>VLOOKUP($A$1&amp;$A16,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>K3</v>
+        <v>K6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -6909,11 +6962,11 @@
       </c>
       <c r="D17" t="str">
         <f>VLOOKUP($A$1&amp;A17,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Charles Clay</v>
+        <v>Kenny Stills</v>
       </c>
       <c r="E17" t="str">
         <f>VLOOKUP($A$1&amp;$A17,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>TE16</v>
+        <v>WR52</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -6931,11 +6984,11 @@
       </c>
       <c r="D18" t="str">
         <f>VLOOKUP($A$1&amp;A18,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Tyler Lockett</v>
+        <v>Davante Adams (15th Round, 2nd Year Keeper)</v>
       </c>
       <c r="E18" t="str">
         <f>VLOOKUP($A$1&amp;$A18,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR58</v>
+        <v>WR53</v>
       </c>
     </row>
   </sheetData>
@@ -6959,12 +7012,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -6976,7 +7029,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7139,7 +7192,7 @@
       </c>
       <c r="B11">
         <f>VLOOKUP($A$1&amp;A11,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C11">
         <f>VLOOKUP($A$1&amp;A11,'All Picks'!$A$2:$E$181,3,0)</f>
@@ -7147,11 +7200,11 @@
       </c>
       <c r="D11" t="str">
         <f>VLOOKUP($A$1&amp;A11,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Calvin Ridley</v>
+        <v>Tarik Cohen</v>
       </c>
       <c r="E11" t="str">
         <f>VLOOKUP($A$1&amp;$A11,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR30</v>
+        <v>RB38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -7161,19 +7214,19 @@
       </c>
       <c r="B12">
         <f>VLOOKUP($A$1&amp;A12,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C12">
         <f>VLOOKUP($A$1&amp;A12,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" t="str">
         <f>VLOOKUP($A$1&amp;A12,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Tarik Cohen</v>
+        <v>Larry Fitzgerald</v>
       </c>
       <c r="E12" t="str">
         <f>VLOOKUP($A$1&amp;$A12,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>RB38</v>
+        <v>WR36</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -7183,19 +7236,19 @@
       </c>
       <c r="B13">
         <f>VLOOKUP($A$1&amp;A13,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C13">
         <f>VLOOKUP($A$1&amp;A13,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="str">
         <f>VLOOKUP($A$1&amp;A13,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Sterling Shepard</v>
+        <v>Eric Ebron</v>
       </c>
       <c r="E13" t="str">
         <f>VLOOKUP($A$1&amp;$A13,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR36</v>
+        <v>TE11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -7205,19 +7258,19 @@
       </c>
       <c r="B14">
         <f>VLOOKUP($A$1&amp;A14,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C14">
         <f>VLOOKUP($A$1&amp;A14,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="str">
         <f>VLOOKUP($A$1&amp;A14,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Jordy Nelson</v>
+        <v>Mecole Hardman</v>
       </c>
       <c r="E14" t="str">
         <f>VLOOKUP($A$1&amp;$A14,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR38</v>
+        <v>WR44</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -7227,19 +7280,19 @@
       </c>
       <c r="B15">
         <f>VLOOKUP($A$1&amp;A15,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C15">
         <f>VLOOKUP($A$1&amp;A15,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D15" t="str">
         <f>VLOOKUP($A$1&amp;A15,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Giovani Bernard</v>
+        <v>Greg Zuerlein</v>
       </c>
       <c r="E15" t="str">
         <f>VLOOKUP($A$1&amp;$A15,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>RB42</v>
+        <v>K1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -7249,19 +7302,19 @@
       </c>
       <c r="B16">
         <f>VLOOKUP($A$1&amp;A16,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="C16">
         <f>VLOOKUP($A$1&amp;A16,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D16" t="str">
         <f>VLOOKUP($A$1&amp;A16,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Josh Doctson</v>
+        <v>Browns D</v>
       </c>
       <c r="E16" t="str">
         <f>VLOOKUP($A$1&amp;$A16,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR48</v>
+        <v>DST7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -7271,19 +7324,19 @@
       </c>
       <c r="B17">
         <f>VLOOKUP($A$1&amp;A17,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="C17">
         <f>VLOOKUP($A$1&amp;A17,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D17" t="str">
         <f>VLOOKUP($A$1&amp;A17,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Vikings D</v>
+        <v>Austin Hooper</v>
       </c>
       <c r="E17" t="str">
         <f>VLOOKUP($A$1&amp;$A17,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>DST4</v>
+        <v>TE14</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -7293,19 +7346,19 @@
       </c>
       <c r="B18">
         <f>VLOOKUP($A$1&amp;A18,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="C18">
         <f>VLOOKUP($A$1&amp;A18,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D18" t="str">
         <f>VLOOKUP($A$1&amp;A18,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Alex Smith</v>
+        <v>Philip Lindsay (15th Round, 1st Year Keeper)</v>
       </c>
       <c r="E18" t="str">
         <f>VLOOKUP($A$1&amp;$A18,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>QB12</v>
+        <v>RB52</v>
       </c>
     </row>
   </sheetData>
@@ -7334,7 +7387,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -7346,7 +7399,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7517,7 +7570,7 @@
       </c>
       <c r="D11" t="str">
         <f>VLOOKUP($A$1&amp;$A11,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Adam Thielen (1st Year Keeper)</v>
+        <v>Adam Thielen (2nd Year Keeper)</v>
       </c>
       <c r="E11" t="str">
         <f>VLOOKUP($A$1&amp;$A11,'All Picks'!$A$2:$G$181,7,0)</f>
@@ -7539,11 +7592,11 @@
       </c>
       <c r="D12" t="str">
         <f>VLOOKUP($A$1&amp;$A12,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Jamison Crowder</v>
+        <v>Tre'Quan Smith</v>
       </c>
       <c r="E12" t="str">
         <f>VLOOKUP($A$1&amp;$A12,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR43</v>
+        <v>WR40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -7561,11 +7614,11 @@
       </c>
       <c r="D13" t="str">
         <f>VLOOKUP($A$1&amp;$A13,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>DJ Moore</v>
+        <v>Tom Brady</v>
       </c>
       <c r="E13" t="str">
         <f>VLOOKUP($A$1&amp;$A13,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR46</v>
+        <v>QB12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -7583,11 +7636,11 @@
       </c>
       <c r="D14" t="str">
         <f>VLOOKUP($A$1&amp;$A14,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Marcus Mariota</v>
+        <v>Ka'imi Fairbairn</v>
       </c>
       <c r="E14" t="str">
         <f>VLOOKUP($A$1&amp;$A14,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>QB13</v>
+        <v>K5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -7605,11 +7658,11 @@
       </c>
       <c r="D15" t="str">
         <f>VLOOKUP($A$1&amp;$A15,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Dez Bryant</v>
+        <v>Seattle D</v>
       </c>
       <c r="E15" t="str">
         <f>VLOOKUP($A$1&amp;$A15,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR52</v>
+        <v>DST5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -7627,11 +7680,11 @@
       </c>
       <c r="D16" t="str">
         <f>VLOOKUP($A$1&amp;$A16,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Pittsburgh D</v>
+        <v>Hunter Renfrow</v>
       </c>
       <c r="E16" t="str">
         <f>VLOOKUP($A$1&amp;$A16,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>DST11</v>
+        <v>WR51</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -7649,11 +7702,11 @@
       </c>
       <c r="D17" t="str">
         <f>VLOOKUP($A$1&amp;$A17,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>LaGarrette Blount</v>
+        <v>Jordan Reed</v>
       </c>
       <c r="E17" t="str">
         <f>VLOOKUP($A$1&amp;$A17,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>RB52</v>
+        <v>TE18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -7671,11 +7724,11 @@
       </c>
       <c r="D18" t="str">
         <f>VLOOKUP($A$1&amp;$A18,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Samaje Perine</v>
+        <v>Damien Williams (1st Year Keeper)</v>
       </c>
       <c r="E18" t="str">
         <f>VLOOKUP($A$1&amp;$A18,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>RB55</v>
+        <v>RB56</v>
       </c>
     </row>
   </sheetData>
@@ -7704,7 +7757,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -7716,7 +7769,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7733,7 +7786,7 @@
       </c>
       <c r="D4" t="str">
         <f>VLOOKUP($A$1&amp;A4,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Dalvin Cook</v>
+        <v>Dalvin Cook (1st Year Keeper)</v>
       </c>
       <c r="E4" t="str">
         <f>VLOOKUP($A$1&amp;$A4,'All Picks'!$A$2:$G$181,7,0)</f>
@@ -7887,11 +7940,11 @@
       </c>
       <c r="D11" t="str">
         <f>VLOOKUP($A$1&amp;A11,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Matt Breida</v>
+        <v>Michael Gallup</v>
       </c>
       <c r="E11" t="str">
         <f>VLOOKUP($A$1&amp;$A11,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>RB40</v>
+        <v>WR37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -7909,11 +7962,11 @@
       </c>
       <c r="D12" t="str">
         <f>VLOOKUP($A$1&amp;A12,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Allen Hurns</v>
+        <v>Justin Jackson</v>
       </c>
       <c r="E12" t="str">
         <f>VLOOKUP($A$1&amp;$A12,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR39</v>
+        <v>RB42</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -7931,11 +7984,11 @@
       </c>
       <c r="D13" t="str">
         <f>VLOOKUP($A$1&amp;A13,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Jimmy Garoppolo</v>
+        <v>Philip Rivers</v>
       </c>
       <c r="E13" t="str">
         <f>VLOOKUP($A$1&amp;$A13,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>QB9</v>
+        <v>QB14</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -7953,11 +8006,11 @@
       </c>
       <c r="D14" t="str">
         <f>VLOOKUP($A$1&amp;A14,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Philip Rivers</v>
+        <v>Rams D</v>
       </c>
       <c r="E14" t="str">
         <f>VLOOKUP($A$1&amp;$A14,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>QB11</v>
+        <v>DST4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -7975,11 +8028,11 @@
       </c>
       <c r="D15" t="str">
         <f>VLOOKUP($A$1&amp;A15,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Ravens D</v>
+        <v>Michael Thomas (2nd Year Keeper)</v>
       </c>
       <c r="E15" t="str">
         <f>VLOOKUP($A$1&amp;$A15,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>DST6</v>
+        <v>WR48</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -7997,11 +8050,11 @@
       </c>
       <c r="D16" t="str">
         <f>VLOOKUP($A$1&amp;A16,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Doug Baldwin (1st Year Keeper)</v>
+        <v>Matt Bryant</v>
       </c>
       <c r="E16" t="str">
         <f>VLOOKUP($A$1&amp;$A16,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR55</v>
+        <v>K10</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -8019,11 +8072,11 @@
       </c>
       <c r="D17" t="str">
         <f>VLOOKUP($A$1&amp;A17,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Carlos Hyde (1st Year Keeper)</v>
+        <v>Rob Gronkowski</v>
       </c>
       <c r="E17" t="str">
         <f>VLOOKUP($A$1&amp;$A17,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>RB53</v>
+        <v>TE19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -8041,11 +8094,11 @@
       </c>
       <c r="D18" t="str">
         <f>VLOOKUP($A$1&amp;A18,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Harrison Butker</v>
+        <v>Kyle Rudolph</v>
       </c>
       <c r="E18" t="str">
         <f>VLOOKUP($A$1&amp;$A18,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>K11</v>
+        <v>TE20</v>
       </c>
     </row>
   </sheetData>
@@ -8068,12 +8121,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -8085,7 +8138,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8146,7 +8199,7 @@
       </c>
       <c r="D6" t="str">
         <f>VLOOKUP($A$1&amp;A6,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Travis Kelce (End Year Keeper)</v>
+        <v>Travis Kelce (2nd Year Keeper)</v>
       </c>
       <c r="E6" t="str">
         <f>VLOOKUP($A$1&amp;$A6,'All Picks'!$A$2:$G$181,7,0)</f>
@@ -8204,19 +8257,19 @@
       </c>
       <c r="B9">
         <f>VLOOKUP($A$1&amp;A9,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C9">
         <f>VLOOKUP($A$1&amp;A9,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="str">
         <f>VLOOKUP($A$1&amp;A9,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Ty Montgomery</v>
+        <v>Calvin Ridley (1st Year Keeper)</v>
       </c>
       <c r="E9" t="str">
         <f>VLOOKUP($A$1&amp;$A9,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR37</v>
+        <v>WR30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -8226,19 +8279,19 @@
       </c>
       <c r="B10">
         <f>VLOOKUP($A$1&amp;A10,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C10">
         <f>VLOOKUP($A$1&amp;A10,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" t="str">
         <f>VLOOKUP($A$1&amp;A10,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Devontae Booker</v>
+        <v>Kyler Murray</v>
       </c>
       <c r="E10" t="str">
         <f>VLOOKUP($A$1&amp;$A10,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>RB46</v>
+        <v>QB9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -8248,19 +8301,19 @@
       </c>
       <c r="B11">
         <f>VLOOKUP($A$1&amp;A11,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="C11">
         <f>VLOOKUP($A$1&amp;A11,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" t="str">
         <f>VLOOKUP($A$1&amp;A11,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Michael Thomas (1st Year Keeper)</v>
+        <v>Jaylen Samuels</v>
       </c>
       <c r="E11" t="str">
         <f>VLOOKUP($A$1&amp;$A11,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR54</v>
+        <v>RB41</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -8270,19 +8323,19 @@
       </c>
       <c r="B12">
         <f>VLOOKUP($A$1&amp;A12,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="C12">
         <f>VLOOKUP($A$1&amp;A12,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D12" t="str">
         <f>VLOOKUP($A$1&amp;A12,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Derek Carr</v>
+        <v>Jalen Richard</v>
       </c>
       <c r="E12" t="str">
         <f>VLOOKUP($A$1&amp;$A12,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>QB18</v>
+        <v>RB47</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -8290,21 +8343,21 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" t="e">
+      <c r="B13">
         <f>VLOOKUP($A$1&amp;A13,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C13" t="e">
+        <v>122</v>
+      </c>
+      <c r="C13">
         <f>VLOOKUP($A$1&amp;A13,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D13" t="e">
+        <v>11</v>
+      </c>
+      <c r="D13" t="str">
         <f>VLOOKUP($A$1&amp;A13,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E13" t="e">
+        <v>Darwin Thompson</v>
+      </c>
+      <c r="E13" t="str">
         <f>VLOOKUP($A$1&amp;$A13,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>#N/A</v>
+        <v>RB48</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -8312,21 +8365,21 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" t="e">
+      <c r="B14">
         <f>VLOOKUP($A$1&amp;A14,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C14" t="e">
+        <v>143</v>
+      </c>
+      <c r="C14">
         <f>VLOOKUP($A$1&amp;A14,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D14" t="e">
+        <v>12</v>
+      </c>
+      <c r="D14" t="str">
         <f>VLOOKUP($A$1&amp;A14,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E14" t="e">
+        <v>Adrian Peterson</v>
+      </c>
+      <c r="E14" t="str">
         <f>VLOOKUP($A$1&amp;$A14,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>#N/A</v>
+        <v>RB50</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -8334,21 +8387,21 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" t="e">
+      <c r="B15">
         <f>VLOOKUP($A$1&amp;A15,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C15" t="e">
+        <v>146</v>
+      </c>
+      <c r="C15">
         <f>VLOOKUP($A$1&amp;A15,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D15" t="e">
+        <v>13</v>
+      </c>
+      <c r="D15" t="str">
         <f>VLOOKUP($A$1&amp;A15,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E15" t="e">
+        <v>Bills D</v>
+      </c>
+      <c r="E15" t="str">
         <f>VLOOKUP($A$1&amp;$A15,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>#N/A</v>
+        <v>DST9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -8356,21 +8409,21 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" t="e">
+      <c r="B16">
         <f>VLOOKUP($A$1&amp;A16,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C16" t="e">
+        <v>167</v>
+      </c>
+      <c r="C16">
         <f>VLOOKUP($A$1&amp;A16,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D16" t="e">
+        <v>14</v>
+      </c>
+      <c r="D16" t="str">
         <f>VLOOKUP($A$1&amp;A16,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E16" t="e">
+        <v>Matt Prater</v>
+      </c>
+      <c r="E16" t="str">
         <f>VLOOKUP($A$1&amp;$A16,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>#N/A</v>
+        <v>K11</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -8378,21 +8431,21 @@
         <f>A16+1</f>
         <v>14</v>
       </c>
-      <c r="B17" t="e">
+      <c r="B17">
         <f>VLOOKUP($A$1&amp;A17,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C17" t="e">
+        <v>170</v>
+      </c>
+      <c r="C17">
         <f>VLOOKUP($A$1&amp;A17,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D17" t="e">
+        <v>15</v>
+      </c>
+      <c r="D17" t="str">
         <f>VLOOKUP($A$1&amp;A17,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E17" t="e">
+        <v>Cooper Kupp (1st Year Keeper)</v>
+      </c>
+      <c r="E17" t="str">
         <f>VLOOKUP($A$1&amp;$A17,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>#N/A</v>
+        <v>WR57</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -8400,21 +8453,21 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" t="e">
+      <c r="B18">
         <f>VLOOKUP($A$1&amp;A18,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C18" t="e">
+        <v>174</v>
+      </c>
+      <c r="C18">
         <f>VLOOKUP($A$1&amp;A18,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D18" t="e">
+        <v>15</v>
+      </c>
+      <c r="D18" t="str">
         <f>VLOOKUP($A$1&amp;A18,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E18" t="e">
+        <v>Daniel Jones</v>
+      </c>
+      <c r="E18" t="str">
         <f>VLOOKUP($A$1&amp;$A18,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>#N/A</v>
+        <v>QB20</v>
       </c>
     </row>
   </sheetData>
@@ -8438,12 +8491,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -8455,7 +8508,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8472,7 +8525,7 @@
       </c>
       <c r="D4" t="str">
         <f>VLOOKUP($A$1&amp;A4,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Joe Mixon</v>
+        <v>Joe Mixon (1st Year Keeper)</v>
       </c>
       <c r="E4" t="str">
         <f>VLOOKUP($A$1&amp;$A4,'All Picks'!$A$2:$G$181,7,0)</f>
@@ -8626,11 +8679,11 @@
       </c>
       <c r="D11" t="str">
         <f>VLOOKUP($A$1&amp;A11,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Julian Edelman</v>
+        <v>Russell Wilson</v>
       </c>
       <c r="E11" t="str">
         <f>VLOOKUP($A$1&amp;$A11,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR34</v>
+        <v>QB7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -8648,11 +8701,11 @@
       </c>
       <c r="D12" t="str">
         <f>VLOOKUP($A$1&amp;A12,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Pierre Garcon</v>
+        <v>Ito Smith</v>
       </c>
       <c r="E12" t="str">
         <f>VLOOKUP($A$1&amp;$A12,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR41</v>
+        <v>RB45</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -8670,11 +8723,11 @@
       </c>
       <c r="D13" t="str">
         <f>VLOOKUP($A$1&amp;A13,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>James White</v>
+        <v>John Brown</v>
       </c>
       <c r="E13" t="str">
         <f>VLOOKUP($A$1&amp;$A13,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>RB44</v>
+        <v>WR43</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -8692,11 +8745,11 @@
       </c>
       <c r="D14" t="str">
         <f>VLOOKUP($A$1&amp;A14,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Nelson Agholor</v>
+        <v>Justin Tucker</v>
       </c>
       <c r="E14" t="str">
         <f>VLOOKUP($A$1&amp;$A14,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR51</v>
+        <v>K3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -8714,11 +8767,11 @@
       </c>
       <c r="D15" t="str">
         <f>VLOOKUP($A$1&amp;A15,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Patriots D</v>
+        <v>Keke Coutee</v>
       </c>
       <c r="E15" t="str">
         <f>VLOOKUP($A$1&amp;$A15,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>DST5</v>
+        <v>WR47</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -8736,11 +8789,11 @@
       </c>
       <c r="D16" t="str">
         <f>VLOOKUP($A$1&amp;A16,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Chris Boswell</v>
+        <v>Greg Olsen</v>
       </c>
       <c r="E16" t="str">
         <f>VLOOKUP($A$1&amp;$A16,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>K6</v>
+        <v>TE15</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -8758,11 +8811,11 @@
       </c>
       <c r="D17" t="str">
         <f>VLOOKUP($A$1&amp;A17,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Tyreke Hill (15th Round, 1st Year Keeper)</v>
+        <v>Dallas D</v>
       </c>
       <c r="E17" t="str">
         <f>VLOOKUP($A$1&amp;$A17,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR59</v>
+        <v>DST11</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -8780,11 +8833,11 @@
       </c>
       <c r="D18" t="str">
         <f>VLOOKUP($A$1&amp;A18,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Odell Beckham Jr (1st Year Keeper)</v>
+        <v>Mitchell Trubisky</v>
       </c>
       <c r="E18" t="str">
         <f>VLOOKUP($A$1&amp;$A18,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR62</v>
+        <v>QB21</v>
       </c>
     </row>
   </sheetData>
@@ -8808,12 +8861,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -8825,7 +8878,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8886,7 +8939,7 @@
       </c>
       <c r="D6" t="str">
         <f>VLOOKUP($A$1&amp;A6,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Brandin Cooks</v>
+        <v>Brandin Cooks (1st Year Keeper)</v>
       </c>
       <c r="E6" t="str">
         <f>VLOOKUP($A$1&amp;$A6,'All Picks'!$A$2:$G$181,7,0)</f>
@@ -8908,7 +8961,7 @@
       </c>
       <c r="D7" t="str">
         <f>VLOOKUP($A$1&amp;A7,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Sony Michel (3rd Round, 1st Year Keeper</v>
+        <v>Sony Michel (3rd Round, 1st Year Keeper)</v>
       </c>
       <c r="E7" t="str">
         <f>VLOOKUP($A$1&amp;$A7,'All Picks'!$A$2:$G$181,7,0)</f>
@@ -8966,19 +9019,19 @@
       </c>
       <c r="B10">
         <f>VLOOKUP($A$1&amp;A10,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C10">
         <f>VLOOKUP($A$1&amp;A10,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="str">
         <f>VLOOKUP($A$1&amp;A10,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Matt Ryan</v>
+        <v>Jared Goff</v>
       </c>
       <c r="E10" t="str">
         <f>VLOOKUP($A$1&amp;$A10,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>QB8</v>
+        <v>QB10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -8988,19 +9041,19 @@
       </c>
       <c r="B11">
         <f>VLOOKUP($A$1&amp;A11,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C11">
         <f>VLOOKUP($A$1&amp;A11,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="str">
         <f>VLOOKUP($A$1&amp;A11,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>George Kittle</v>
+        <v>Sam Darnold</v>
       </c>
       <c r="E11" t="str">
         <f>VLOOKUP($A$1&amp;$A11,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>TE12</v>
+        <v>QB15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -9010,19 +9063,19 @@
       </c>
       <c r="B12">
         <f>VLOOKUP($A$1&amp;A12,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12">
         <f>VLOOKUP($A$1&amp;A12,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="str">
         <f>VLOOKUP($A$1&amp;A12,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Justin Tucker</v>
+        <v>Jimmy Graham</v>
       </c>
       <c r="E12" t="str">
         <f>VLOOKUP($A$1&amp;$A12,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>K1</v>
+        <v>TE12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -9032,19 +9085,19 @@
       </c>
       <c r="B13">
         <f>VLOOKUP($A$1&amp;A13,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="C13">
         <f>VLOOKUP($A$1&amp;A13,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" t="str">
         <f>VLOOKUP($A$1&amp;A13,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Rams D</v>
+        <v>New England D</v>
       </c>
       <c r="E13" t="str">
         <f>VLOOKUP($A$1&amp;$A13,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>DST3</v>
+        <v>DST8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -9054,19 +9107,19 @@
       </c>
       <c r="B14">
         <f>VLOOKUP($A$1&amp;A14,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C14">
         <f>VLOOKUP($A$1&amp;A14,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="str">
         <f>VLOOKUP($A$1&amp;A14,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Chargers D</v>
+        <v>Jake Elliot</v>
       </c>
       <c r="E14" t="str">
         <f>VLOOKUP($A$1&amp;$A14,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>DST7</v>
+        <v>K9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -9076,19 +9129,19 @@
       </c>
       <c r="B15">
         <f>VLOOKUP($A$1&amp;A15,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C15">
         <f>VLOOKUP($A$1&amp;A15,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="str">
         <f>VLOOKUP($A$1&amp;A15,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Texans D</v>
+        <v>Houston D</v>
       </c>
       <c r="E15" t="str">
         <f>VLOOKUP($A$1&amp;$A15,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>DST8</v>
+        <v>DST10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -9106,11 +9159,11 @@
       </c>
       <c r="D16" t="str">
         <f>VLOOKUP($A$1&amp;A16,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Josh Gordon (15th Round, 1st Year Keeper)</v>
+        <v>Ryan Fitzpatrick</v>
       </c>
       <c r="E16" t="str">
         <f>VLOOKUP($A$1&amp;$A16,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR60</v>
+        <v>QB19</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -9128,11 +9181,11 @@
       </c>
       <c r="D17" t="str">
         <f>VLOOKUP($A$1&amp;A17,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Dan Bailey</v>
+        <v>Josh Gordon (2nd Year Keeper)</v>
       </c>
       <c r="E17" t="str">
         <f>VLOOKUP($A$1&amp;$A17,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>K10</v>
+        <v>WR56</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -9140,21 +9193,21 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" t="e">
+      <c r="B18">
         <f>VLOOKUP($A$1&amp;A18,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C18" t="e">
+        <v>177</v>
+      </c>
+      <c r="C18">
         <f>VLOOKUP($A$1&amp;A18,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D18" t="e">
+        <v>15</v>
+      </c>
+      <c r="D18" t="str">
         <f>VLOOKUP($A$1&amp;A18,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E18" t="e">
+        <v>Jason Witten</v>
+      </c>
+      <c r="E18" t="str">
         <f>VLOOKUP($A$1&amp;$A18,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>#N/A</v>
+        <v>TE21</v>
       </c>
     </row>
   </sheetData>
@@ -9178,12 +9231,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -9195,7 +9248,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9366,11 +9419,11 @@
       </c>
       <c r="D11" t="str">
         <f>VLOOKUP($A$1&amp;A11,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Patrick Maholmes</v>
+        <v>Marvin Jones Jr</v>
       </c>
       <c r="E11" t="str">
         <f>VLOOKUP($A$1&amp;$A11,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>QB7</v>
+        <v>WR34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -9380,19 +9433,19 @@
       </c>
       <c r="B12">
         <f>VLOOKUP($A$1&amp;A12,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C12">
         <f>VLOOKUP($A$1&amp;A12,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="str">
         <f>VLOOKUP($A$1&amp;A12,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>DeVante Parker</v>
+        <v>Delanie Walker</v>
       </c>
       <c r="E12" t="str">
         <f>VLOOKUP($A$1&amp;$A12,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR42</v>
+        <v>TE10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -9402,19 +9455,19 @@
       </c>
       <c r="B13">
         <f>VLOOKUP($A$1&amp;A13,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C13">
         <f>VLOOKUP($A$1&amp;A13,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" t="str">
         <f>VLOOKUP($A$1&amp;A13,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>John Ross</v>
+        <v>Marques Valdes-Scantlin</v>
       </c>
       <c r="E13" t="str">
         <f>VLOOKUP($A$1&amp;$A13,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR47</v>
+        <v>WR39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -9424,19 +9477,19 @@
       </c>
       <c r="B14">
         <f>VLOOKUP($A$1&amp;A14,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C14">
         <f>VLOOKUP($A$1&amp;A14,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" t="str">
         <f>VLOOKUP($A$1&amp;A14,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Greg Zuerlein</v>
+        <v>Ben Roethlisberger</v>
       </c>
       <c r="E14" t="str">
         <f>VLOOKUP($A$1&amp;$A14,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>K2</v>
+        <v>QB13</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -9446,19 +9499,19 @@
       </c>
       <c r="B15">
         <f>VLOOKUP($A$1&amp;A15,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C15">
         <f>VLOOKUP($A$1&amp;A15,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" t="str">
         <f>VLOOKUP($A$1&amp;A15,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Latavius Murray</v>
+        <v>Will Lutz</v>
       </c>
       <c r="E15" t="str">
         <f>VLOOKUP($A$1&amp;$A15,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>RB47</v>
+        <v>K4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -9468,19 +9521,19 @@
       </c>
       <c r="B16">
         <f>VLOOKUP($A$1&amp;A16,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C16">
         <f>VLOOKUP($A$1&amp;A16,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="str">
         <f>VLOOKUP($A$1&amp;A16,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Davante Adams (15th Round, 1st Year Keeper)</v>
+        <v>Minnesota D</v>
       </c>
       <c r="E16" t="str">
         <f>VLOOKUP($A$1&amp;$A16,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR57</v>
+        <v>DST6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -9490,19 +9543,19 @@
       </c>
       <c r="B17">
         <f>VLOOKUP($A$1&amp;A17,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C17">
         <f>VLOOKUP($A$1&amp;A17,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" t="str">
         <f>VLOOKUP($A$1&amp;A17,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Deshaun Watson (15th Round, 1st Year Keeper)</v>
+        <v>Alvin Kamara (15th Round, 2nd Year Keeper)</v>
       </c>
       <c r="E17" t="str">
         <f>VLOOKUP($A$1&amp;$A17,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>QB16</v>
+        <v>RB51</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -9512,7 +9565,7 @@
       </c>
       <c r="B18">
         <f>VLOOKUP($A$1&amp;A18,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C18">
         <f>VLOOKUP($A$1&amp;A18,'All Picks'!$A$2:$E$181,3,0)</f>
@@ -9520,11 +9573,11 @@
       </c>
       <c r="D18" t="str">
         <f>VLOOKUP($A$1&amp;A18,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Graham Gano</v>
+        <v>Carlos Hyde</v>
       </c>
       <c r="E18" t="str">
         <f>VLOOKUP($A$1&amp;$A18,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>K12</v>
+        <v>RB55</v>
       </c>
     </row>
   </sheetData>
@@ -9548,12 +9601,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -9565,7 +9618,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9714,11 +9767,11 @@
       </c>
       <c r="D10" t="str">
         <f>VLOOKUP($A$1&amp;A10,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>David Njoku</v>
+        <v>Aaron Jones (1st Year Keeper)</v>
       </c>
       <c r="E10" t="str">
         <f>VLOOKUP($A$1&amp;$A10,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>TE10</v>
+        <v>RB39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -9736,11 +9789,11 @@
       </c>
       <c r="D11" t="str">
         <f>VLOOKUP($A$1&amp;A11,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Kenny Golladay</v>
+        <v>Dak Prescott</v>
       </c>
       <c r="E11" t="str">
         <f>VLOOKUP($A$1&amp;$A11,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR44</v>
+        <v>QB11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -9758,11 +9811,11 @@
       </c>
       <c r="D12" t="str">
         <f>VLOOKUP($A$1&amp;A12,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Mike Williams</v>
+        <v>James Washington</v>
       </c>
       <c r="E12" t="str">
         <f>VLOOKUP($A$1&amp;$A12,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR45</v>
+        <v>WR42</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -9780,11 +9833,11 @@
       </c>
       <c r="D13" t="str">
         <f>VLOOKUP($A$1&amp;A13,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Ryan Tannehill</v>
+        <v>Jameis Winston</v>
       </c>
       <c r="E13" t="str">
         <f>VLOOKUP($A$1&amp;$A13,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>QB14</v>
+        <v>QB16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -9802,11 +9855,11 @@
       </c>
       <c r="D14" t="str">
         <f>VLOOKUP($A$1&amp;A14,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Matt Bryant</v>
+        <v>DeAndre Hopkins (2nd Year Keeper)</v>
       </c>
       <c r="E14" t="str">
         <f>VLOOKUP($A$1&amp;$A14,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>K4</v>
+        <v>WR46</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -9824,11 +9877,11 @@
       </c>
       <c r="D15" t="str">
         <f>VLOOKUP($A$1&amp;A15,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Dallas D</v>
+        <v>Jack Doyle</v>
       </c>
       <c r="E15" t="str">
         <f>VLOOKUP($A$1&amp;$A15,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>DST12</v>
+        <v>TE16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -9846,11 +9899,11 @@
       </c>
       <c r="D16" t="str">
         <f>VLOOKUP($A$1&amp;A16,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Alvin Kamara (1st Year Keeper)</v>
+        <v>Darren Waller</v>
       </c>
       <c r="E16" t="str">
         <f>VLOOKUP($A$1&amp;$A16,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>RB51</v>
+        <v>TE17</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -9860,7 +9913,7 @@
       </c>
       <c r="B17">
         <f>VLOOKUP($A$1&amp;A17,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C17">
         <f>VLOOKUP($A$1&amp;A17,'All Picks'!$A$2:$E$181,3,0)</f>
@@ -9868,11 +9921,11 @@
       </c>
       <c r="D17" t="str">
         <f>VLOOKUP($A$1&amp;A17,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Anthony Miller</v>
+        <v>Broncos D</v>
       </c>
       <c r="E17" t="str">
         <f>VLOOKUP($A$1&amp;$A17,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR63</v>
+        <v>DST12</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -9880,21 +9933,21 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" t="e">
+      <c r="B18">
         <f>VLOOKUP($A$1&amp;A18,'All Picks'!$A$2:$E$181,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C18" t="e">
+        <v>179</v>
+      </c>
+      <c r="C18">
         <f>VLOOKUP($A$1&amp;A18,'All Picks'!$A$2:$E$181,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D18" t="e">
+        <v>15</v>
+      </c>
+      <c r="D18" t="str">
         <f>VLOOKUP($A$1&amp;A18,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E18" t="e">
+        <v>Brett Maher</v>
+      </c>
+      <c r="E18" t="str">
         <f>VLOOKUP($A$1&amp;$A18,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>#N/A</v>
+        <v>K12</v>
       </c>
     </row>
   </sheetData>
@@ -9918,12 +9971,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -9935,7 +9988,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9952,7 +10005,7 @@
       </c>
       <c r="D4" t="str">
         <f>VLOOKUP($A$1&amp;A4,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Christian McCaffrey</v>
+        <v>Christian McCaffrey (1st Year Keeper)</v>
       </c>
       <c r="E4" t="str">
         <f>VLOOKUP($A$1&amp;$A4,'All Picks'!$A$2:$G$181,7,0)</f>
@@ -10128,11 +10181,11 @@
       </c>
       <c r="D12" t="str">
         <f>VLOOKUP($A$1&amp;A12,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Aaron Jones</v>
+        <v>Nyheim Hines</v>
       </c>
       <c r="E12" t="str">
         <f>VLOOKUP($A$1&amp;$A12,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>RB39</v>
+        <v>RB40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -10150,11 +10203,11 @@
       </c>
       <c r="D13" t="str">
         <f>VLOOKUP($A$1&amp;A13,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Jags D</v>
+        <v>Ronald Jones</v>
       </c>
       <c r="E13" t="str">
         <f>VLOOKUP($A$1&amp;$A13,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>DST1</v>
+        <v>RB43</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -10172,11 +10225,11 @@
       </c>
       <c r="D14" t="str">
         <f>VLOOKUP($A$1&amp;A14,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Dede Westbrook</v>
+        <v>Bears D</v>
       </c>
       <c r="E14" t="str">
         <f>VLOOKUP($A$1&amp;$A14,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR49</v>
+        <v>DST2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -10194,11 +10247,11 @@
       </c>
       <c r="D15" t="str">
         <f>VLOOKUP($A$1&amp;A15,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Christian Kirk</v>
+        <v>Desean Jackson</v>
       </c>
       <c r="E15" t="str">
         <f>VLOOKUP($A$1&amp;$A15,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>WR50</v>
+        <v>WR45</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -10216,11 +10269,11 @@
       </c>
       <c r="D16" t="str">
         <f>VLOOKUP($A$1&amp;A16,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Jordan Howard (1st Year Keeper)</v>
+        <v>Robbie Gould</v>
       </c>
       <c r="E16" t="str">
         <f>VLOOKUP($A$1&amp;$A16,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>RB49</v>
+        <v>K7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -10238,11 +10291,11 @@
       </c>
       <c r="D17" t="str">
         <f>VLOOKUP($A$1&amp;A17,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Eric Ebron</v>
+        <v>Baker Mayfield (15th Round, 1st Year Keeper)</v>
       </c>
       <c r="E17" t="str">
         <f>VLOOKUP($A$1&amp;$A17,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>TE15</v>
+        <v>QB18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -10260,11 +10313,11 @@
       </c>
       <c r="D18" t="str">
         <f>VLOOKUP($A$1&amp;A18,'All Picks'!$A$2:$E$181,5,0)</f>
-        <v>Matt Prater</v>
+        <v>Amari Cooper (15th Round, 1st Year Keeper)</v>
       </c>
       <c r="E18" t="str">
         <f>VLOOKUP($A$1&amp;$A18,'All Picks'!$A$2:$G$181,7,0)</f>
-        <v>K8</v>
+        <v>WR55</v>
       </c>
     </row>
   </sheetData>
